--- a/results/4-2021/fim-interactive-2021-04.xlsx
+++ b/results/4-2021/fim-interactive-2021-04.xlsx
@@ -3254,19 +3254,19 @@
         </is>
       </c>
       <c r="C88">
-        <v>2.141513428455601</v>
+        <v>1.873926383296885</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>-4.473577035624887</v>
+        <v>-5.543925216259748</v>
       </c>
       <c r="F88">
         <v>0.5496957104695311</v>
       </c>
       <c r="G88">
-        <v>0.8928635529554986</v>
+        <v>-0.177484627679363</v>
       </c>
       <c r="H88">
         <v>-5.916136299049916</v>
@@ -3287,19 +3287,19 @@
         </is>
       </c>
       <c r="C89">
-        <v>0.3464327863934353</v>
+        <v>0.08182813302424896</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>-4.315026728360003</v>
+        <v>-4.303097161201886</v>
       </c>
       <c r="F89">
         <v>0.3441625582805103</v>
       </c>
       <c r="G89">
-        <v>0.003969802677506046</v>
+        <v>0.01589936983562321</v>
       </c>
       <c r="H89">
         <v>-4.663159089318019</v>
@@ -3320,22 +3320,22 @@
         </is>
       </c>
       <c r="C90">
-        <v>0.7869446952522878</v>
+        <v>0.5398745608834392</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>-2.55577512751134</v>
+        <v>-2.485637051509989</v>
       </c>
       <c r="F90">
         <v>0.07707146022304415</v>
       </c>
       <c r="G90">
-        <v>-0.1598806902785079</v>
+        <v>-0.09430572462392049</v>
       </c>
       <c r="H90">
-        <v>-2.472965897455876</v>
+        <v>-2.468402787109112</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="C91">
-        <v>-3.157588193014601</v>
+        <v>-3.385936102095937</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>-1.285973880562181</v>
+        <v>-1.211084979412131</v>
       </c>
       <c r="F91">
         <v>-0.2507940361522072</v>
       </c>
       <c r="G91">
-        <v>-0.04157381380844985</v>
+        <v>0.02429067122749204</v>
       </c>
       <c r="H91">
-        <v>-0.9936060306015236</v>
+        <v>-0.984581614487416</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="C92">
-        <v>-3.116785142788927</v>
+        <v>-3.072302783945443</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>-4.310364834722189</v>
+        <v>-4.289391943657774</v>
       </c>
       <c r="F92">
         <v>0.03073638495717679</v>
       </c>
       <c r="G92">
-        <v>-0.2220975640672541</v>
+        <v>-0.2100109462393651</v>
       </c>
       <c r="H92">
-        <v>-4.119003655612112</v>
+        <v>-4.110117382375586</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -3419,22 +3419,22 @@
         </is>
       </c>
       <c r="C93">
-        <v>-2.765665597513955</v>
+        <v>-2.704676865768532</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>-2.910548547260113</v>
+        <v>-2.832593488494241</v>
       </c>
       <c r="F93">
         <v>0.09665293453422291</v>
       </c>
       <c r="G93">
-        <v>-0.3285350405600393</v>
+        <v>-0.2638253725065609</v>
       </c>
       <c r="H93">
-        <v>-2.678666441234297</v>
+        <v>-2.665421050521903</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -3452,22 +3452,22 @@
         </is>
       </c>
       <c r="C94">
-        <v>-2.429244382523232</v>
+        <v>-2.380864709445605</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>-1.210090267548449</v>
+        <v>-1.190388426218285</v>
       </c>
       <c r="F94">
         <v>0.09312370768446371</v>
       </c>
       <c r="G94">
-        <v>-0.3830949591187624</v>
+        <v>-0.3720484625441509</v>
       </c>
       <c r="H94">
-        <v>-0.9201190161141506</v>
+        <v>-0.911463671358598</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -3485,22 +3485,22 @@
         </is>
       </c>
       <c r="C95">
-        <v>-3.050636120093097</v>
+        <v>-3.017228711954064</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>-3.771540830841639</v>
+        <v>-3.756540989445968</v>
       </c>
       <c r="F95">
         <v>-0.07809244489832719</v>
       </c>
       <c r="G95">
-        <v>-0.3766715326331541</v>
+        <v>-0.3658181146744316</v>
       </c>
       <c r="H95">
-        <v>-3.316776853310158</v>
+        <v>-3.312630429873209</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -3518,22 +3518,22 @@
         </is>
       </c>
       <c r="C96">
-        <v>-2.664591190380445</v>
+        <v>-2.632712770248448</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>-2.76618511587158</v>
+        <v>-2.75132817683531</v>
       </c>
       <c r="F96">
         <v>0.1671864564110747</v>
       </c>
       <c r="G96">
-        <v>-0.6509267161975835</v>
+        <v>-0.6401125466936208</v>
       </c>
       <c r="H96">
-        <v>-2.282444856085071</v>
+        <v>-2.278402086552763</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -3551,22 +3551,22 @@
         </is>
       </c>
       <c r="C97">
-        <v>-2.532339801686407</v>
+        <v>-2.516960196494551</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>-2.381542992483963</v>
+        <v>-2.369583193478651</v>
       </c>
       <c r="F97">
         <v>-0.04454262810795627</v>
       </c>
       <c r="G97">
-        <v>0.03608804383525387</v>
+        <v>0.04828202482276735</v>
       </c>
       <c r="H97">
-        <v>-2.37308840821126</v>
+        <v>-2.373322590193463</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -3584,22 +3584,22 @@
         </is>
       </c>
       <c r="C98">
-        <v>-2.70174800433843</v>
+        <v>-2.688280322597154</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>-1.887723078156544</v>
+        <v>-1.875668930628697</v>
       </c>
       <c r="F98">
         <v>-0.04465233912845792</v>
       </c>
       <c r="G98">
-        <v>0.04435795351544387</v>
+        <v>0.05651798313011696</v>
       </c>
       <c r="H98">
-        <v>-1.88742869254353</v>
+        <v>-1.887534574630356</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -3617,22 +3617,22 @@
         </is>
       </c>
       <c r="C99">
-        <v>-2.020870762949191</v>
+        <v>-2.00813209970978</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>-1.048031865284683</v>
+        <v>-1.035948097896472</v>
       </c>
       <c r="F99">
         <v>0.008679353111062443</v>
       </c>
       <c r="G99">
-        <v>-0.03634843916721383</v>
+        <v>-0.02428508576750764</v>
       </c>
       <c r="H99">
-        <v>-1.020362779228531</v>
+        <v>-1.020342365240027</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -3650,22 +3650,22 @@
         </is>
       </c>
       <c r="C100">
-        <v>-1.552692672401821</v>
+        <v>-1.540636074589762</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>-0.8934727536820972</v>
+        <v>-0.8813440763552357</v>
       </c>
       <c r="F100">
         <v>-0.007862832019348384</v>
       </c>
       <c r="G100">
-        <v>-0.02717644046717898</v>
+        <v>-0.01519593446559325</v>
       </c>
       <c r="H100">
-        <v>-0.8584334811955698</v>
+        <v>-0.8582853098702941</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -3683,22 +3683,22 @@
         </is>
       </c>
       <c r="C101">
-        <v>-1.064319170401402</v>
+        <v>-1.052285938134526</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>-0.4280489844822862</v>
+        <v>-0.4161826476577081</v>
       </c>
       <c r="F101">
         <v>0.004476008043089192</v>
       </c>
       <c r="G101">
-        <v>-0.05473848270913685</v>
+        <v>-0.04301805083836812</v>
       </c>
       <c r="H101">
-        <v>-0.3777865098162386</v>
+        <v>-0.3776406048624292</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -3716,22 +3716,22 @@
         </is>
       </c>
       <c r="C102">
-        <v>-0.6531006466564824</v>
+        <v>-0.6411695678456368</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>-0.2428489831768667</v>
+        <v>-0.2312034494731412</v>
       </c>
       <c r="F102">
         <v>-0.07490502075917781</v>
       </c>
       <c r="G102">
-        <v>5.277742677882447e-005</v>
+        <v>0.01156739090339905</v>
       </c>
       <c r="H102">
-        <v>-0.1679967398444677</v>
+        <v>-0.1678658196173624</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -3749,22 +3749,22 @@
         </is>
       </c>
       <c r="C103">
-        <v>-0.4012964437159824</v>
+        <v>-0.3895341700578792</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>-0.04081505352268244</v>
+        <v>-0.02940650674544181</v>
       </c>
       <c r="F103">
         <v>-0.08917485202121986</v>
       </c>
       <c r="G103">
-        <v>-0.004916604594111834</v>
+        <v>0.006377982857808572</v>
       </c>
       <c r="H103">
-        <v>0.05327640309264926</v>
+        <v>0.05339036241796947</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -3782,22 +3782,22 @@
         </is>
       </c>
       <c r="C104">
-        <v>-0.147949733174575</v>
+        <v>-0.1364349054410919</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0.1199140884835323</v>
+        <v>0.1310529821119135</v>
       </c>
       <c r="F104">
         <v>-0.08560104541384203</v>
       </c>
       <c r="G104">
-        <v>-0.008120657545914803</v>
+        <v>0.002925563465860523</v>
       </c>
       <c r="H104">
-        <v>0.2136357914432892</v>
+        <v>0.213728464059895</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -3815,22 +3815,22 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.03795771181453819</v>
+        <v>0.04925729699979316</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0.3155807954741665</v>
+        <v>0.3265861621058322</v>
       </c>
       <c r="F105">
         <v>-0.08109679317658748</v>
       </c>
       <c r="G105">
-        <v>-0.01523441714569654</v>
+        <v>-0.004308469557871161</v>
       </c>
       <c r="H105">
-        <v>0.4119120057964505</v>
+        <v>0.4119914248402908</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -3848,22 +3848,22 @@
         </is>
       </c>
       <c r="C106">
-        <v>0.1521406988465177</v>
+        <v>0.1632242748365093</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0.2138829649510513</v>
+        <v>0.2246644618737232</v>
       </c>
       <c r="F106">
         <v>-0.07760359764326087</v>
       </c>
       <c r="G106">
-        <v>-0.0181282940635972</v>
+        <v>-0.007421442495815084</v>
       </c>
       <c r="H106">
-        <v>0.3096148566579094</v>
+        <v>0.3096895020127992</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="C107">
-        <v>-0.3182075060960469</v>
+        <v>-0.09033612429538397</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>-1.922207873292941</v>
+        <v>-1.043648103273015</v>
       </c>
       <c r="F107">
         <v>-1.104195886066948</v>
       </c>
       <c r="G107">
-        <v>-0.3819190905109333</v>
+        <v>0.4965714104588073</v>
       </c>
       <c r="H107">
-        <v>-0.4360928967150595</v>
+        <v>-0.4360236276648742</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="C108">
-        <v>-0.6710961329044058</v>
+        <v>-0.4460573280694173</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>-1.291640418749904</v>
+        <v>-1.29183183298422</v>
       </c>
       <c r="F108">
         <v>-0.5911763394843805</v>
       </c>
       <c r="G108">
-        <v>-0.01939327841366301</v>
+        <v>-0.01965043346734782</v>
       </c>
       <c r="H108">
-        <v>-0.6810708008518603</v>
+        <v>-0.6810050600324916</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -3947,22 +3947,22 @@
         </is>
       </c>
       <c r="C109">
-        <v>-1.083522966791296</v>
+        <v>-0.8612874689037963</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>-1.334126540073394</v>
+        <v>-1.334334401231684</v>
       </c>
       <c r="F109">
         <v>-0.5186293111934863</v>
       </c>
       <c r="G109">
-        <v>-0.02455863975701489</v>
+        <v>-0.02482837575352705</v>
       </c>
       <c r="H109">
-        <v>-0.7909385891228925</v>
+        <v>-0.7908767142846704</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -3980,22 +3980,22 @@
         </is>
       </c>
       <c r="C110">
-        <v>-1.423702750202241</v>
+        <v>-1.204217119006157</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>-1.146836168692728</v>
+        <v>-1.147054138535719</v>
       </c>
       <c r="F110">
         <v>-0.3088732279341577</v>
       </c>
       <c r="G110">
-        <v>-0.011105263577291</v>
+        <v>-0.01138153513563604</v>
       </c>
       <c r="H110">
-        <v>-0.8268576771812795</v>
+        <v>-0.8267993754659253</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -4013,22 +4013,22 @@
         </is>
       </c>
       <c r="C111">
-        <v>-0.9814203507098382</v>
+        <v>-0.9816335696949577</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>-0.1530782753233314</v>
+        <v>-0.1533139060282182</v>
       </c>
       <c r="F111">
         <v>-0.2285927347169659</v>
       </c>
       <c r="G111">
-        <v>-0.01686795726118538</v>
+        <v>-0.01715820841039999</v>
       </c>
       <c r="H111">
-        <v>0.09238241665481989</v>
+        <v>0.09243703709914775</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -4046,22 +4046,22 @@
         </is>
       </c>
       <c r="C112">
-        <v>-0.7009865293573724</v>
+        <v>-0.7012153244710463</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>-0.1699051333400399</v>
+        <v>-0.1701588520885738</v>
       </c>
       <c r="F112">
         <v>-0.2249372474335473</v>
       </c>
       <c r="G112">
-        <v>-0.02214388367715012</v>
+        <v>-0.02244806611981744</v>
       </c>
       <c r="H112">
-        <v>0.07717599777065745</v>
+        <v>0.07722646146479087</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -4079,22 +4079,22 @@
         </is>
       </c>
       <c r="C113">
-        <v>-0.4226652085967553</v>
+        <v>-0.4229089837237135</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>-0.2208412570309256</v>
+        <v>-0.2211090382423525</v>
       </c>
       <c r="F113">
         <v>-0.2182056268008309</v>
       </c>
       <c r="G113">
-        <v>-0.02691839730774019</v>
+        <v>-0.02723261054117304</v>
       </c>
       <c r="H113">
-        <v>0.02428276707764554</v>
+        <v>0.02432919909965148</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -4112,22 +4112,22 @@
         </is>
       </c>
       <c r="C114">
-        <v>-0.1633759669287551</v>
+        <v>-0.1636351174944132</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>-0.1096792020207275</v>
+        <v>-0.109958673618518</v>
       </c>
       <c r="F114">
         <v>-0.1983445860786198</v>
       </c>
       <c r="G114">
-        <v>-0.02985699378211695</v>
+        <v>-0.0301783134623088</v>
       </c>
       <c r="H114">
-        <v>0.1185223778400093</v>
+        <v>0.1185642259224106</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -4145,22 +4145,22 @@
         </is>
       </c>
       <c r="C115">
-        <v>-0.09799800597576683</v>
+        <v>-0.09827305938341449</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0.1084335684886217</v>
+        <v>0.1081343264157765</v>
       </c>
       <c r="F115">
         <v>-0.1166266791775149</v>
       </c>
       <c r="G115">
-        <v>-0.03517840504568214</v>
+        <v>-0.03551551653977646</v>
       </c>
       <c r="H115">
-        <v>0.2602386527118187</v>
+        <v>0.2602765221330678</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -4178,22 +4178,22 @@
         </is>
       </c>
       <c r="C116">
-        <v>0.009586369853897103</v>
+        <v>0.009297203456065384</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0.2604323699786158</v>
+        <v>0.2601221992693457</v>
       </c>
       <c r="F116">
         <v>-0.1158462352664058</v>
       </c>
       <c r="G116">
-        <v>-0.03899445676316356</v>
+        <v>-0.03933809971064427</v>
       </c>
       <c r="H116">
-        <v>0.4152730620081852</v>
+        <v>0.4153065342463958</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -4211,22 +4211,22 @@
         </is>
       </c>
       <c r="C117">
-        <v>0.1575399243262753</v>
+        <v>0.1572340540059731</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0.3709729608585872</v>
+        <v>0.3706383639572786</v>
       </c>
       <c r="F117">
         <v>-0.1110352567967979</v>
       </c>
       <c r="G117">
-        <v>-0.04588062101953211</v>
+        <v>-0.04624399721931048</v>
       </c>
       <c r="H117">
-        <v>0.5278888386749172</v>
+        <v>0.527917617973387</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -4244,22 +4244,22 @@
         </is>
       </c>
       <c r="C118">
-        <v>0.2031094840692998</v>
+        <v>0.2027873392237646</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0.07259903695137071</v>
+        <v>0.07225446725264767</v>
       </c>
       <c r="F118">
         <v>-0.1072636150853989</v>
       </c>
       <c r="G118">
-        <v>-0.04520772999665409</v>
+        <v>-0.04557670362690153</v>
       </c>
       <c r="H118">
-        <v>0.2250703820334237</v>
+        <v>0.2250947859649481</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -4277,22 +4277,22 @@
         </is>
       </c>
       <c r="C119">
-        <v>0.09422392069486621</v>
+        <v>0.09388640908509233</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>-0.3271086850091128</v>
+        <v>-0.3274693941389124</v>
       </c>
       <c r="F119">
         <v>-0.08568743174625301</v>
       </c>
       <c r="G119">
-        <v>-0.04977768028537853</v>
+        <v>-0.05015812542385768</v>
       </c>
       <c r="H119">
-        <v>-0.1916435729774813</v>
+        <v>-0.1916238369688016</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -4310,22 +4310,22 @@
         </is>
       </c>
       <c r="C120">
-        <v>-0.1045602839750286</v>
+        <v>-0.1049141228213679</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>-0.5347044487009636</v>
+        <v>-0.5350799283564953</v>
       </c>
       <c r="F120">
         <v>-0.08529001528437953</v>
       </c>
       <c r="G120">
-        <v>-0.05415139510077419</v>
+        <v>-0.05454181981836344</v>
       </c>
       <c r="H120">
-        <v>-0.3952630383158099</v>
+        <v>-0.3952480932537524</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -4343,22 +4343,22 @@
         </is>
       </c>
       <c r="C121">
-        <v>-0.367288504783047</v>
+        <v>-0.3676527286187202</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>-0.6799399223734863</v>
+        <v>-0.6803160592321305</v>
       </c>
       <c r="F121">
         <v>-0.08274470280441298</v>
       </c>
       <c r="G121">
-        <v>-0.0547867309832839</v>
+        <v>-0.05517422258961736</v>
       </c>
       <c r="H121">
-        <v>-0.5424084885857895</v>
+        <v>-0.5423971338381002</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -4376,22 +4376,22 @@
         </is>
       </c>
       <c r="C122">
-        <v>-0.449683499358254</v>
+        <v>-0.450057153071857</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>-0.2569809413494571</v>
+        <v>-0.2573632305598996</v>
       </c>
       <c r="F122">
         <v>-0.08578441787397714</v>
       </c>
       <c r="G122">
-        <v>-0.05004175042978342</v>
+        <v>-0.05043296689207213</v>
       </c>
       <c r="H122">
-        <v>-0.1211547730456965</v>
+        <v>-0.1211458457938503</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -4409,22 +4409,22 @@
         </is>
       </c>
       <c r="C123">
-        <v>-0.3517859552948947</v>
+        <v>-0.3521668347116355</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>0.06448149124432429</v>
+        <v>0.06409187930197391</v>
       </c>
       <c r="F123">
         <v>-0.07439735684460999</v>
       </c>
       <c r="G123">
-        <v>-0.05292201073203475</v>
+        <v>-0.05331900731522186</v>
       </c>
       <c r="H123">
-        <v>0.191800858820969</v>
+        <v>0.1918082434618058</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -4442,22 +4442,22 @@
         </is>
       </c>
       <c r="C124">
-        <v>-0.1414578833304379</v>
+        <v>-0.1418400155470669</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>0.306607839156864</v>
+        <v>0.306227348301779</v>
       </c>
       <c r="F124">
         <v>-0.07344784309998544</v>
       </c>
       <c r="G124">
-        <v>-0.05197058123252756</v>
+        <v>-0.05235807887098553</v>
       </c>
       <c r="H124">
-        <v>0.432026263489377</v>
+        <v>0.4320332702727499</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -4475,22 +4475,22 @@
         </is>
       </c>
       <c r="C125">
-        <v>0.1472415245142056</v>
+        <v>0.1468570084715332</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0.4748577090050876</v>
+        <v>0.4744720368422697</v>
       </c>
       <c r="F125">
         <v>-0.06961914664000717</v>
       </c>
       <c r="G125">
-        <v>-0.05440910481874934</v>
+        <v>-0.05480168184485704</v>
       </c>
       <c r="H125">
-        <v>0.5988859604638441</v>
+        <v>0.5988928653271339</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -4508,22 +4508,22 @@
         </is>
       </c>
       <c r="C126">
-        <v>0.2532625133522168</v>
+        <v>0.2528771251018237</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>0.1671030140025877</v>
+        <v>0.1667172359612625</v>
       </c>
       <c r="F126">
         <v>-0.07399735139521226</v>
       </c>
       <c r="G126">
-        <v>-0.05098113757835245</v>
+        <v>-0.05137350232320155</v>
       </c>
       <c r="H126">
-        <v>0.2920815029761524</v>
+        <v>0.2920880896796763</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="C127">
-        <v>0.2157301357899308</v>
+        <v>0.2153442861771146</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>-0.08564801900481994</v>
+        <v>-0.08603947639686257</v>
       </c>
       <c r="F127">
         <v>-0.06103019738071975</v>
       </c>
       <c r="G127">
-        <v>-0.05367358152005015</v>
+        <v>-0.05407159244374033</v>
       </c>
       <c r="H127">
-        <v>0.02905575989594995</v>
+        <v>0.02906231342759751</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -4574,22 +4574,22 @@
         </is>
       </c>
       <c r="C128">
-        <v>0.06415831194215971</v>
+        <v>0.06377185890740879</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>-0.2996794562342203</v>
+        <v>-0.3000623607770442</v>
       </c>
       <c r="F128">
         <v>-0.05845613110354226</v>
       </c>
       <c r="G128">
-        <v>-0.05320203772341216</v>
+        <v>-0.05359180759609845</v>
       </c>
       <c r="H128">
-        <v>-0.1880212874072659</v>
+        <v>-0.1880144220774035</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="C129">
-        <v>-0.1737480443682519</v>
+        <v>-0.1741349003124122</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>-0.4767677162365588</v>
+        <v>-0.4771550000370145</v>
       </c>
       <c r="F129">
         <v>-0.059599211089205</v>
       </c>
       <c r="G129">
-        <v>-0.05554091657992112</v>
+        <v>-0.05593497154086932</v>
       </c>
       <c r="H129">
-        <v>-0.3616275885674327</v>
+        <v>-0.3616208174069402</v>
       </c>
       <c r="I129">
         <v>1</v>

--- a/results/4-2021/fim-interactive-2021-04.xlsx
+++ b/results/4-2021/fim-interactive-2021-04.xlsx
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="C88">
-        <v>1.873926383296885</v>
+        <v>2.084519604503849</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>-5.543925216259748</v>
+        <v>-4.701552331431892</v>
       </c>
       <c r="F88">
         <v>0.5496957104695311</v>
       </c>
       <c r="G88">
-        <v>-0.177484627679363</v>
+        <v>0.5989643103647085</v>
       </c>
       <c r="H88">
-        <v>-5.916136299049916</v>
+        <v>-5.850212352266132</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -3287,22 +3287,22 @@
         </is>
       </c>
       <c r="C89">
-        <v>0.08182813302424896</v>
+        <v>0.4505033064860069</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>-4.303097161201886</v>
+        <v>-3.670769352182711</v>
       </c>
       <c r="F89">
         <v>0.3441625582805103</v>
       </c>
       <c r="G89">
-        <v>0.01589936983562321</v>
+        <v>0.5385127706527834</v>
       </c>
       <c r="H89">
-        <v>-4.663159089318019</v>
+        <v>-4.553444681116004</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -3320,22 +3320,22 @@
         </is>
       </c>
       <c r="C90">
-        <v>0.5398745608834392</v>
+        <v>1.034819936926385</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>-2.485637051509989</v>
+        <v>-1.980556241185238</v>
       </c>
       <c r="F90">
         <v>0.07707146022304415</v>
       </c>
       <c r="G90">
-        <v>-0.09430572462392049</v>
+        <v>0.2713079767385702</v>
       </c>
       <c r="H90">
-        <v>-2.468402787109112</v>
+        <v>-2.328935678146852</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="C91">
-        <v>-3.385936102095937</v>
+        <v>-2.757908100582512</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>-1.211084979412131</v>
+        <v>-0.6787544775302115</v>
       </c>
       <c r="F91">
         <v>-0.2507940361522072</v>
       </c>
       <c r="G91">
-        <v>0.02429067122749204</v>
+        <v>0.3877611295958299</v>
       </c>
       <c r="H91">
-        <v>-0.984581614487416</v>
+        <v>-0.8157215709738341</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="C92">
-        <v>-3.072302783945443</v>
+        <v>-2.515916046170657</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>-4.289391943657774</v>
+        <v>-3.733584113784474</v>
       </c>
       <c r="F92">
         <v>0.03073638495717679</v>
       </c>
       <c r="G92">
-        <v>-0.2100109462393651</v>
+        <v>0.205856231790346</v>
       </c>
       <c r="H92">
-        <v>-4.110117382375586</v>
+        <v>-3.970176730531997</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -3419,22 +3419,22 @@
         </is>
       </c>
       <c r="C93">
-        <v>-2.704676865768532</v>
+        <v>-2.169567719272388</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>-2.832593488494241</v>
+        <v>-2.285376044589632</v>
       </c>
       <c r="F93">
         <v>0.09665293453422291</v>
       </c>
       <c r="G93">
-        <v>-0.2638253725065609</v>
+        <v>0.1512351555391492</v>
       </c>
       <c r="H93">
-        <v>-2.665421050521903</v>
+        <v>-2.533264134663004</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -3452,22 +3452,22 @@
         </is>
       </c>
       <c r="C94">
-        <v>-2.380864709445605</v>
+        <v>-1.820576057365934</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>-1.190388426218285</v>
+        <v>-0.5845895935594218</v>
       </c>
       <c r="F94">
         <v>0.09312370768446371</v>
       </c>
       <c r="G94">
-        <v>-0.3720484625441509</v>
+        <v>0.09266818344615287</v>
       </c>
       <c r="H94">
-        <v>-0.911463671358598</v>
+        <v>-0.7703814846900383</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -3485,22 +3485,22 @@
         </is>
       </c>
       <c r="C95">
-        <v>-3.017228711954064</v>
+        <v>-2.451849649838939</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>-3.756540989445968</v>
+        <v>-3.203848847422231</v>
       </c>
       <c r="F95">
         <v>-0.07809244489832719</v>
       </c>
       <c r="G95">
-        <v>-0.3658181146744316</v>
+        <v>0.04164877327441237</v>
       </c>
       <c r="H95">
-        <v>-3.312630429873209</v>
+        <v>-3.167405175798316</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -3518,22 +3518,22 @@
         </is>
       </c>
       <c r="C96">
-        <v>-2.632712770248448</v>
+        <v>-2.069050952675976</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>-2.75132817683531</v>
+        <v>-2.20238932513262</v>
       </c>
       <c r="F96">
         <v>0.1671864564110747</v>
       </c>
       <c r="G96">
-        <v>-0.6401125466936208</v>
+        <v>-0.2359414643208324</v>
       </c>
       <c r="H96">
-        <v>-2.278402086552763</v>
+        <v>-2.133634317222863</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -3551,22 +3551,22 @@
         </is>
       </c>
       <c r="C97">
-        <v>-2.516960196494551</v>
+        <v>-2.063283631688681</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>-2.369583193478651</v>
+        <v>-2.262306760640453</v>
       </c>
       <c r="F97">
         <v>-0.04454262810795627</v>
       </c>
       <c r="G97">
-        <v>0.04828202482276735</v>
+        <v>0.0458561061685083</v>
       </c>
       <c r="H97">
-        <v>-2.373322590193463</v>
+        <v>-2.263620238701006</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -3584,22 +3584,22 @@
         </is>
       </c>
       <c r="C98">
-        <v>-2.688280322597154</v>
+        <v>-2.368717008582395</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>-1.875668930628697</v>
+        <v>-1.806323101134278</v>
       </c>
       <c r="F98">
         <v>-0.04465233912845792</v>
       </c>
       <c r="G98">
-        <v>0.05651798313011696</v>
+        <v>0.05496150094622421</v>
       </c>
       <c r="H98">
-        <v>-1.887534574630356</v>
+        <v>-1.816632262952044</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -3617,22 +3617,22 @@
         </is>
       </c>
       <c r="C99">
-        <v>-2.00813209970978</v>
+        <v>-1.817571811074139</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>-1.035948097896472</v>
+        <v>-0.9992680573892033</v>
       </c>
       <c r="F99">
         <v>0.008679353111062443</v>
       </c>
       <c r="G99">
-        <v>-0.02428508576750764</v>
+        <v>-0.02471614684150295</v>
       </c>
       <c r="H99">
-        <v>-1.020342365240027</v>
+        <v>-0.9832312636587628</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -3650,22 +3650,22 @@
         </is>
       </c>
       <c r="C100">
-        <v>-1.540636074589762</v>
+        <v>-1.486206614116123</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>-0.8813440763552357</v>
+        <v>-0.8769285373005582</v>
       </c>
       <c r="F100">
         <v>-0.007862832019348384</v>
       </c>
       <c r="G100">
-        <v>-0.01519593446559325</v>
+        <v>-0.01476207322228914</v>
       </c>
       <c r="H100">
-        <v>-0.8582853098702941</v>
+        <v>-0.8543036320589207</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -3683,22 +3683,22 @@
         </is>
       </c>
       <c r="C101">
-        <v>-1.052285938134526</v>
+        <v>-1.024267231506505</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>-0.4161826476577081</v>
+        <v>-0.4145492302019803</v>
       </c>
       <c r="F101">
         <v>0.004476008043089192</v>
       </c>
       <c r="G101">
-        <v>-0.04301805083836812</v>
+        <v>-0.04530540898530526</v>
       </c>
       <c r="H101">
-        <v>-0.3776406048624292</v>
+        <v>-0.3737198292597642</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -3716,22 +3716,22 @@
         </is>
       </c>
       <c r="C102">
-        <v>-0.6411695678456368</v>
+        <v>-0.630949616972228</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>-0.2312034494731412</v>
+        <v>-0.2330526429971709</v>
       </c>
       <c r="F102">
         <v>-0.07490502075917781</v>
       </c>
       <c r="G102">
-        <v>0.01156739090339905</v>
+        <v>0.006200093168863941</v>
       </c>
       <c r="H102">
-        <v>-0.1678658196173624</v>
+        <v>-0.164347715406857</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -3749,22 +3749,22 @@
         </is>
       </c>
       <c r="C103">
-        <v>-0.3895341700578792</v>
+        <v>-0.3891468628053848</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>-0.02940650674544181</v>
+        <v>-0.03205704072183081</v>
       </c>
       <c r="F103">
         <v>-0.08917485202121986</v>
       </c>
       <c r="G103">
-        <v>0.006377982857808572</v>
+        <v>0.0006651200793593853</v>
       </c>
       <c r="H103">
-        <v>0.05339036241796947</v>
+        <v>0.05645269122002967</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -3782,22 +3782,22 @@
         </is>
       </c>
       <c r="C104">
-        <v>-0.1364349054410919</v>
+        <v>-0.1379887626561636</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0.1310529821119135</v>
+        <v>0.1277038632963267</v>
       </c>
       <c r="F104">
         <v>-0.08560104541384203</v>
       </c>
       <c r="G104">
-        <v>0.002925563465860523</v>
+        <v>-0.002913865135224528</v>
       </c>
       <c r="H104">
-        <v>0.213728464059895</v>
+        <v>0.2162187738453932</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -3815,22 +3815,22 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.04925729699979316</v>
+        <v>0.046212062422263</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0.3265861621058322</v>
+        <v>0.3222540701117259</v>
       </c>
       <c r="F105">
         <v>-0.08109679317658748</v>
       </c>
       <c r="G105">
-        <v>-0.004308469557871161</v>
+        <v>-0.0107747197237428</v>
       </c>
       <c r="H105">
-        <v>0.4119914248402908</v>
+        <v>0.4141255830120562</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -3848,22 +3848,22 @@
         </is>
       </c>
       <c r="C106">
-        <v>0.1632242748365093</v>
+        <v>0.1595210414525309</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0.2246644618737232</v>
+        <v>0.2201832731239007</v>
       </c>
       <c r="F106">
         <v>-0.07760359764326087</v>
       </c>
       <c r="G106">
-        <v>-0.007421442495815084</v>
+        <v>-0.01390851026938404</v>
       </c>
       <c r="H106">
-        <v>0.3096895020127992</v>
+        <v>0.3116953810365457</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="C107">
-        <v>-0.09033612429538397</v>
+        <v>-0.09459358982877034</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>-1.043648103273015</v>
+        <v>-1.048515565847036</v>
       </c>
       <c r="F107">
         <v>-1.104195886066948</v>
       </c>
       <c r="G107">
-        <v>0.4965714104588073</v>
+        <v>0.4898425415726784</v>
       </c>
       <c r="H107">
-        <v>-0.4360236276648742</v>
+        <v>-0.4341622213527663</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="C108">
-        <v>-0.4460573280694173</v>
+        <v>-0.4507634405250267</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>-1.29183183298422</v>
+        <v>-1.296975539488699</v>
       </c>
       <c r="F108">
         <v>-0.5911763394843805</v>
       </c>
       <c r="G108">
-        <v>-0.01965043346734782</v>
+        <v>-0.02656073523778435</v>
       </c>
       <c r="H108">
-        <v>-0.6810050600324916</v>
+        <v>-0.6792384647665338</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -3947,22 +3947,22 @@
         </is>
       </c>
       <c r="C109">
-        <v>-0.8612874689037963</v>
+        <v>-0.8663069759205014</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>-1.334334401231684</v>
+        <v>-1.339920071470173</v>
       </c>
       <c r="F109">
         <v>-0.5186293111934863</v>
       </c>
       <c r="G109">
-        <v>-0.02482837575352705</v>
+        <v>-0.03207675414403895</v>
       </c>
       <c r="H109">
-        <v>-0.7908767142846704</v>
+        <v>-0.7892140061326478</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -3980,22 +3980,22 @@
         </is>
       </c>
       <c r="C110">
-        <v>-1.204217119006157</v>
+        <v>-1.209580656845233</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>-1.147054138535719</v>
+        <v>-1.152911450575026</v>
       </c>
       <c r="F110">
         <v>-0.3088732279341577</v>
       </c>
       <c r="G110">
-        <v>-0.01138153513563604</v>
+        <v>-0.01880553793617674</v>
       </c>
       <c r="H110">
-        <v>-0.8267993754659253</v>
+        <v>-0.825232684704692</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -4013,22 +4013,22 @@
         </is>
       </c>
       <c r="C111">
-        <v>-0.9816335696949577</v>
+        <v>-0.9873632161056369</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>-0.1533139060282182</v>
+        <v>-0.1596458028886507</v>
       </c>
       <c r="F111">
         <v>-0.2285927347169659</v>
       </c>
       <c r="G111">
-        <v>-0.01715820841039999</v>
+        <v>-0.02495787247087041</v>
       </c>
       <c r="H111">
-        <v>0.09243703709914775</v>
+        <v>0.09390480429918563</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -4046,22 +4046,22 @@
         </is>
       </c>
       <c r="C112">
-        <v>-0.7012153244710463</v>
+        <v>-0.707363534496062</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>-0.1701588520885738</v>
+        <v>-0.1769768130503995</v>
       </c>
       <c r="F112">
         <v>-0.2249372474335473</v>
       </c>
       <c r="G112">
-        <v>-0.02244806611981744</v>
+        <v>-0.03062209358665697</v>
       </c>
       <c r="H112">
-        <v>0.07722646146479087</v>
+        <v>0.07858252796980472</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -4079,22 +4079,22 @@
         </is>
       </c>
       <c r="C113">
-        <v>-0.4229089837237135</v>
+        <v>-0.4294597384813296</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>-0.2211090382423525</v>
+        <v>-0.2283048874112433</v>
       </c>
       <c r="F113">
         <v>-0.2182056268008309</v>
       </c>
       <c r="G113">
-        <v>-0.02723261054117304</v>
+        <v>-0.03567618663302673</v>
       </c>
       <c r="H113">
-        <v>0.02432919909965148</v>
+        <v>0.02557692602261436</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -4112,22 +4112,22 @@
         </is>
       </c>
       <c r="C114">
-        <v>-0.1636351174944132</v>
+        <v>-0.1705990429043229</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>-0.109958673618518</v>
+        <v>-0.1174686682669998</v>
       </c>
       <c r="F114">
         <v>-0.1983445860786198</v>
       </c>
       <c r="G114">
-        <v>-0.0301783134623088</v>
+        <v>-0.03881285485310208</v>
       </c>
       <c r="H114">
-        <v>0.1185642259224106</v>
+        <v>0.1196887726647221</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -4145,22 +4145,22 @@
         </is>
       </c>
       <c r="C115">
-        <v>-0.09827305938341449</v>
+        <v>-0.1056643278906794</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0.1081343264157765</v>
+        <v>0.1000930571659235</v>
       </c>
       <c r="F115">
         <v>-0.1166266791775149</v>
       </c>
       <c r="G115">
-        <v>-0.03551551653977646</v>
+        <v>-0.04457441746726536</v>
       </c>
       <c r="H115">
-        <v>0.2602765221330678</v>
+        <v>0.2612941538107038</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -4178,22 +4178,22 @@
         </is>
       </c>
       <c r="C116">
-        <v>0.009297203456065384</v>
+        <v>0.001526688966101468</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0.2601221992693457</v>
+        <v>0.2517872543767239</v>
       </c>
       <c r="F116">
         <v>-0.1158462352664058</v>
       </c>
       <c r="G116">
-        <v>-0.03933809971064427</v>
+        <v>-0.04857251464534843</v>
       </c>
       <c r="H116">
-        <v>0.4153065342463958</v>
+        <v>0.4162060042884782</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -4211,22 +4211,22 @@
         </is>
       </c>
       <c r="C117">
-        <v>0.1572340540059731</v>
+        <v>0.1490146696867932</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0.3706383639572786</v>
+        <v>0.3616470354715237</v>
       </c>
       <c r="F117">
         <v>-0.1110352567967979</v>
       </c>
       <c r="G117">
-        <v>-0.04624399721931048</v>
+        <v>-0.05600868650164431</v>
       </c>
       <c r="H117">
-        <v>0.527917617973387</v>
+        <v>0.528690978769966</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -4244,22 +4244,22 @@
         </is>
       </c>
       <c r="C118">
-        <v>0.2027873392237646</v>
+        <v>0.1941306238901377</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0.07225446725264767</v>
+        <v>0.06299514854637808</v>
       </c>
       <c r="F118">
         <v>-0.1072636150853989</v>
       </c>
       <c r="G118">
-        <v>-0.04557670362690153</v>
+        <v>-0.05549180773889883</v>
       </c>
       <c r="H118">
-        <v>0.2250947859649481</v>
+        <v>0.2257505713706758</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -4277,22 +4277,22 @@
         </is>
       </c>
       <c r="C119">
-        <v>0.09388640908509233</v>
+        <v>0.08481675620028961</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>-0.3274693941389124</v>
+        <v>-0.3371624135934688</v>
       </c>
       <c r="F119">
         <v>-0.08568743174625301</v>
       </c>
       <c r="G119">
-        <v>-0.05015812542385768</v>
+        <v>-0.06038149329570093</v>
       </c>
       <c r="H119">
-        <v>-0.1916238369688016</v>
+        <v>-0.1910934885515148</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -4310,22 +4310,22 @@
         </is>
       </c>
       <c r="C120">
-        <v>-0.1049141228213679</v>
+        <v>-0.1144225231860246</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>-0.5350799283564953</v>
+        <v>-0.545169863168533</v>
       </c>
       <c r="F120">
         <v>-0.08529001528437953</v>
       </c>
       <c r="G120">
-        <v>-0.05454181981836344</v>
+        <v>-0.06503336014937107</v>
       </c>
       <c r="H120">
-        <v>-0.3952480932537524</v>
+        <v>-0.3948464877347824</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -4343,22 +4343,22 @@
         </is>
       </c>
       <c r="C121">
-        <v>-0.3676527286187202</v>
+        <v>-0.3774401956753861</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>-0.6803160592321305</v>
+        <v>-0.6904236544859222</v>
       </c>
       <c r="F121">
         <v>-0.08274470280441298</v>
       </c>
       <c r="G121">
-        <v>-0.05517422258961736</v>
+        <v>-0.06558694399952578</v>
       </c>
       <c r="H121">
-        <v>-0.5423971338381002</v>
+        <v>-0.5420920076819835</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -4376,22 +4376,22 @@
         </is>
       </c>
       <c r="C122">
-        <v>-0.450057153071857</v>
+        <v>-0.4600980209512142</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>-0.2573632305598996</v>
+        <v>-0.2676361525569344</v>
       </c>
       <c r="F122">
         <v>-0.08578441787397714</v>
       </c>
       <c r="G122">
-        <v>-0.05043296689207213</v>
+        <v>-0.06094578308271625</v>
       </c>
       <c r="H122">
-        <v>-0.1211458457938503</v>
+        <v>-0.120905951600241</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -4409,22 +4409,22 @@
         </is>
       </c>
       <c r="C123">
-        <v>-0.3521668347116355</v>
+        <v>-0.3624018725614808</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>0.06409187930197391</v>
+        <v>0.05362217996546506</v>
       </c>
       <c r="F123">
         <v>-0.07439735684460999</v>
       </c>
       <c r="G123">
-        <v>-0.05331900731522186</v>
+        <v>-0.06398714761530897</v>
       </c>
       <c r="H123">
-        <v>0.1918082434618058</v>
+        <v>0.192006684425384</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -4442,22 +4442,22 @@
         </is>
       </c>
       <c r="C124">
-        <v>-0.1418400155470669</v>
+        <v>-0.1521087187873687</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>0.306227348301779</v>
+        <v>0.2960027519279154</v>
       </c>
       <c r="F124">
         <v>-0.07344784309998544</v>
       </c>
       <c r="G124">
-        <v>-0.05235807887098553</v>
+        <v>-0.06277096237687457</v>
       </c>
       <c r="H124">
-        <v>0.4320332702727499</v>
+        <v>0.4322215574047754</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -4475,22 +4475,22 @@
         </is>
       </c>
       <c r="C125">
-        <v>0.1468570084715332</v>
+        <v>0.1365242467688533</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0.4744720368422697</v>
+        <v>0.4641082077389656</v>
       </c>
       <c r="F125">
         <v>-0.06961914664000717</v>
       </c>
       <c r="G125">
-        <v>-0.05480168184485704</v>
+        <v>-0.06535105927137325</v>
       </c>
       <c r="H125">
-        <v>0.5988928653271339</v>
+        <v>0.599078413650346</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -4508,22 +4508,22 @@
         </is>
       </c>
       <c r="C126">
-        <v>0.2528771251018237</v>
+        <v>0.2425209253275457</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>0.1667172359612625</v>
+        <v>0.1563505616778355</v>
       </c>
       <c r="F126">
         <v>-0.07399735139521226</v>
       </c>
       <c r="G126">
-        <v>-0.05137350232320155</v>
+        <v>-0.06191717530202648</v>
       </c>
       <c r="H126">
-        <v>0.2920880896796763</v>
+        <v>0.2922650883750742</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="C127">
-        <v>0.2153442861771146</v>
+        <v>0.2049756886159528</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>-0.08603947639686257</v>
+        <v>-0.09655876688090659</v>
       </c>
       <c r="F127">
         <v>-0.06103019738071975</v>
       </c>
       <c r="G127">
-        <v>-0.05407159244374033</v>
+        <v>-0.06476699022452889</v>
       </c>
       <c r="H127">
-        <v>0.02906231342759751</v>
+        <v>0.02923842072434205</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -4574,22 +4574,22 @@
         </is>
       </c>
       <c r="C128">
-        <v>0.06377185890740879</v>
+        <v>0.05338704611890914</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>-0.3000623607770442</v>
+        <v>-0.3103518180602593</v>
       </c>
       <c r="F128">
         <v>-0.05845613110354226</v>
       </c>
       <c r="G128">
-        <v>-0.05359180759609845</v>
+        <v>-0.06406575085549028</v>
       </c>
       <c r="H128">
-        <v>-0.1880144220774035</v>
+        <v>-0.1878299361012268</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="C129">
-        <v>-0.1741349003124122</v>
+        <v>-0.1845305401314051</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>-0.4771550000370145</v>
+        <v>-0.4875621372622913</v>
       </c>
       <c r="F129">
         <v>-0.059599211089205</v>
       </c>
       <c r="G129">
-        <v>-0.05593497154086932</v>
+        <v>-0.06652406421155707</v>
       </c>
       <c r="H129">
-        <v>-0.3616208174069402</v>
+        <v>-0.3614388619615293</v>
       </c>
       <c r="I129">
         <v>1</v>

--- a/results/4-2021/fim-interactive-2021-04.xlsx
+++ b/results/4-2021/fim-interactive-2021-04.xlsx
@@ -3221,13 +3221,13 @@
         </is>
       </c>
       <c r="C87">
-        <v>6.818762100276192</v>
+        <v>5.282290318860309</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>14.49215767250538</v>
+        <v>8.34627054684184</v>
       </c>
       <c r="F87">
         <v>1.148456641551472</v>
@@ -3236,7 +3236,7 @@
         <v>-0.3600782684252779</v>
       </c>
       <c r="H87">
-        <v>13.70377929937918</v>
+        <v>7.557892173715646</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="C88">
-        <v>2.084519604503849</v>
+        <v>1.415601846951565</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>-4.701552331431892</v>
+        <v>-1.231336235977494</v>
       </c>
       <c r="F88">
         <v>0.5496957104695311</v>
@@ -3269,7 +3269,7 @@
         <v>0.5989643103647085</v>
       </c>
       <c r="H88">
-        <v>-5.850212352266132</v>
+        <v>-2.379996256811734</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -3287,13 +3287,13 @@
         </is>
       </c>
       <c r="C89">
-        <v>0.4505033064860069</v>
+        <v>0.08213234295514882</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>-3.670769352182711</v>
+        <v>-2.468582176097005</v>
       </c>
       <c r="F89">
         <v>0.3441625582805103</v>
@@ -3302,7 +3302,7 @@
         <v>0.5385127706527834</v>
       </c>
       <c r="H89">
-        <v>-4.553444681116004</v>
+        <v>-3.351257505030299</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -3320,13 +3320,13 @@
         </is>
       </c>
       <c r="C90">
-        <v>1.034819936926385</v>
+        <v>0.6677973263260465</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>-1.980556241185238</v>
+        <v>-1.975162829463159</v>
       </c>
       <c r="F90">
         <v>0.07707146022304415</v>
@@ -3335,7 +3335,7 @@
         <v>0.2713079767385702</v>
       </c>
       <c r="H90">
-        <v>-2.328935678146852</v>
+        <v>-2.323542266424774</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -3353,13 +3353,13 @@
         </is>
       </c>
       <c r="C91">
-        <v>-2.757908100582512</v>
+        <v>-1.587066169546117</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>-0.6787544775302115</v>
+        <v>-0.6731834366468126</v>
       </c>
       <c r="F91">
         <v>-0.2507940361522072</v>
@@ -3368,7 +3368,7 @@
         <v>0.3877611295958299</v>
       </c>
       <c r="H91">
-        <v>-0.8157215709738341</v>
+        <v>-0.8101505300904353</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -3386,13 +3386,13 @@
         </is>
       </c>
       <c r="C92">
-        <v>-2.515916046170657</v>
+        <v>-2.209768784352658</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>-3.733584113784474</v>
+        <v>-3.72214669520366</v>
       </c>
       <c r="F92">
         <v>0.03073638495717679</v>
@@ -3401,7 +3401,7 @@
         <v>0.205856231790346</v>
       </c>
       <c r="H92">
-        <v>-3.970176730531997</v>
+        <v>-3.958739311951182</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -3419,13 +3419,13 @@
         </is>
       </c>
       <c r="C93">
-        <v>-2.169567719272388</v>
+        <v>-2.161140813011599</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>-2.285376044589632</v>
+        <v>-2.27407029073277</v>
       </c>
       <c r="F93">
         <v>0.09665293453422291</v>
@@ -3434,7 +3434,7 @@
         <v>0.1512351555391492</v>
       </c>
       <c r="H93">
-        <v>-2.533264134663004</v>
+        <v>-2.521958380806142</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -3452,13 +3452,13 @@
         </is>
       </c>
       <c r="C94">
-        <v>-1.820576057365934</v>
+        <v>-1.810680684559447</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>-0.5845895935594218</v>
+        <v>-0.5733223156545495</v>
       </c>
       <c r="F94">
         <v>0.09312370768446371</v>
@@ -3467,7 +3467,7 @@
         <v>0.09266818344615287</v>
       </c>
       <c r="H94">
-        <v>-0.7703814846900383</v>
+        <v>-0.7591142067851661</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -3485,13 +3485,13 @@
         </is>
       </c>
       <c r="C95">
-        <v>-2.451849649838939</v>
+        <v>-2.125006351255308</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>-3.203848847422231</v>
+        <v>-1.930486103430256</v>
       </c>
       <c r="F95">
         <v>-0.07809244489832719</v>
@@ -3500,7 +3500,7 @@
         <v>0.04164877327441237</v>
       </c>
       <c r="H95">
-        <v>-3.167405175798316</v>
+        <v>-1.894042431806341</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -3518,13 +3518,13 @@
         </is>
       </c>
       <c r="C96">
-        <v>-2.069050952675976</v>
+        <v>-1.745113074087862</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>-2.20238932513262</v>
+        <v>-2.202573586533878</v>
       </c>
       <c r="F96">
         <v>0.1671864564110747</v>
@@ -3533,7 +3533,7 @@
         <v>-0.2359414643208324</v>
       </c>
       <c r="H96">
-        <v>-2.133634317222863</v>
+        <v>-2.13381857862412</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -3551,13 +3551,13 @@
         </is>
       </c>
       <c r="C97">
-        <v>-2.063283631688681</v>
+        <v>-1.742199801637665</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>-2.262306760640453</v>
+        <v>-2.262417200931978</v>
       </c>
       <c r="F97">
         <v>-0.04454262810795627</v>
@@ -3566,7 +3566,7 @@
         <v>0.0458561061685083</v>
       </c>
       <c r="H97">
-        <v>-2.263620238701006</v>
+        <v>-2.26373067899253</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -3584,13 +3584,13 @@
         </is>
       </c>
       <c r="C98">
-        <v>-2.368717008582395</v>
+        <v>-2.050466094628632</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>-1.806323101134278</v>
+        <v>-1.806387487618418</v>
       </c>
       <c r="F98">
         <v>-0.04465233912845792</v>
@@ -3599,7 +3599,7 @@
         <v>0.05496150094622421</v>
       </c>
       <c r="H98">
-        <v>-1.816632262952044</v>
+        <v>-1.816696649436184</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="C99">
-        <v>-1.817571811074139</v>
+        <v>-1.817666087996739</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>-0.9992680573892033</v>
+        <v>-0.9992860769026831</v>
       </c>
       <c r="F99">
         <v>0.008679353111062443</v>
@@ -3632,7 +3632,7 @@
         <v>-0.02471614684150295</v>
       </c>
       <c r="H99">
-        <v>-0.9832312636587628</v>
+        <v>-0.9832492831722426</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -3650,13 +3650,13 @@
         </is>
       </c>
       <c r="C100">
-        <v>-1.486206614116123</v>
+        <v>-1.48624814949699</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>-0.8769285373005582</v>
+        <v>-0.876901832534884</v>
       </c>
       <c r="F100">
         <v>-0.007862832019348384</v>
@@ -3665,7 +3665,7 @@
         <v>-0.01476207322228914</v>
       </c>
       <c r="H100">
-        <v>-0.8543036320589207</v>
+        <v>-0.8542769272932465</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -3683,13 +3683,13 @@
         </is>
       </c>
       <c r="C101">
-        <v>-1.024267231506505</v>
+        <v>-1.024263722896351</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>-0.4145492302019803</v>
+        <v>-0.4144794945294207</v>
       </c>
       <c r="F101">
         <v>0.004476008043089192</v>
@@ -3698,7 +3698,7 @@
         <v>-0.04530540898530526</v>
       </c>
       <c r="H101">
-        <v>-0.3737198292597642</v>
+        <v>-0.3736500935872046</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -3716,13 +3716,13 @@
         </is>
       </c>
       <c r="C102">
-        <v>-0.630949616972228</v>
+        <v>-0.630944311181158</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>-0.2330526429971709</v>
+        <v>-0.2331098407576477</v>
       </c>
       <c r="F102">
         <v>-0.07490502075917781</v>
@@ -3731,7 +3731,7 @@
         <v>0.006200093168863941</v>
       </c>
       <c r="H102">
-        <v>-0.164347715406857</v>
+        <v>-0.1644049131673339</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -3749,13 +3749,13 @@
         </is>
       </c>
       <c r="C103">
-        <v>-0.3891468628053848</v>
+        <v>-0.3891824979286767</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>-0.03205704072183081</v>
+        <v>-0.03223882389275771</v>
       </c>
       <c r="F103">
         <v>-0.08917485202121986</v>
@@ -3764,7 +3764,7 @@
         <v>0.0006651200793593853</v>
       </c>
       <c r="H103">
-        <v>0.05645269122002967</v>
+        <v>0.05627090804910277</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -3782,13 +3782,13 @@
         </is>
       </c>
       <c r="C104">
-        <v>-0.1379887626561636</v>
+        <v>-0.1381067372972398</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0.1277038632963267</v>
+        <v>0.1274012099908635</v>
       </c>
       <c r="F104">
         <v>-0.08560104541384203</v>
@@ -3797,7 +3797,7 @@
         <v>-0.002913865135224528</v>
       </c>
       <c r="H104">
-        <v>0.2162187738453932</v>
+        <v>0.21591612053993</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.046212062422263</v>
+        <v>0.04597161935548892</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0.3222540701117259</v>
+        <v>0.3218339320814942</v>
       </c>
       <c r="F105">
         <v>-0.08109679317658748</v>
@@ -3830,7 +3830,7 @@
         <v>-0.0107747197237428</v>
       </c>
       <c r="H105">
-        <v>0.4141255830120562</v>
+        <v>0.4137054449818245</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -3848,13 +3848,13 @@
         </is>
       </c>
       <c r="C106">
-        <v>0.1595210414525309</v>
+        <v>0.1592042585532063</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0.2201832731239007</v>
+        <v>0.2198207160332217</v>
       </c>
       <c r="F106">
         <v>-0.07760359764326087</v>
@@ -3863,7 +3863,7 @@
         <v>-0.01390851026938404</v>
       </c>
       <c r="H106">
-        <v>0.3116953810365457</v>
+        <v>0.3113328239458666</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -3881,13 +3881,13 @@
         </is>
       </c>
       <c r="C107">
-        <v>-0.09459358982877034</v>
+        <v>-0.0932134393642665</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>-1.048515565847036</v>
+        <v>-1.041909615562649</v>
       </c>
       <c r="F107">
         <v>-1.104195886066948</v>
@@ -3896,7 +3896,7 @@
         <v>0.4898425415726784</v>
       </c>
       <c r="H107">
-        <v>-0.4341622213527663</v>
+        <v>-0.4275562710683794</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -3914,13 +3914,13 @@
         </is>
       </c>
       <c r="C108">
-        <v>-0.4507634405250267</v>
+        <v>-0.4476477475369362</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>-1.296975539488699</v>
+        <v>-1.290336022699815</v>
       </c>
       <c r="F108">
         <v>-0.5911763394843805</v>
@@ -3929,7 +3929,7 @@
         <v>-0.02656073523778435</v>
       </c>
       <c r="H108">
-        <v>-0.6792384647665338</v>
+        <v>-0.6725989479776502</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -3947,13 +3947,13 @@
         </is>
       </c>
       <c r="C109">
-        <v>-0.8663069759205014</v>
+        <v>-0.8614181047413209</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>-1.339920071470173</v>
+        <v>-1.333247496736045</v>
       </c>
       <c r="F109">
         <v>-0.5186293111934863</v>
@@ -3962,7 +3962,7 @@
         <v>-0.03207675414403895</v>
       </c>
       <c r="H109">
-        <v>-0.7892140061326478</v>
+        <v>-0.7825414313985196</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -3980,13 +3980,13 @@
         </is>
       </c>
       <c r="C110">
-        <v>-1.209580656845233</v>
+        <v>-1.20293659227396</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>-1.152911450575026</v>
+        <v>-1.146253234097334</v>
       </c>
       <c r="F110">
         <v>-0.3088732279341577</v>
@@ -3995,7 +3995,7 @@
         <v>-0.01880553793617674</v>
       </c>
       <c r="H110">
-        <v>-0.825232684704692</v>
+        <v>-0.8185744682269998</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>-0.9873632161056369</v>
+        <v>-0.9823706391054602</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>-0.707363534496062</v>
+        <v>-0.7040308366931063</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>-0.4294597384813296</v>
+        <v>-0.4277951843619059</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>-0.1705990429043229</v>
+        <v>-0.1705990429043223</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>-0.1056643278906794</v>
+        <v>-0.1056643278906788</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>0.001526688966101468</v>
+        <v>0.001526688966102079</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -4211,7 +4211,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>0.1490146696867932</v>
+        <v>0.1490146696867938</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="C118">
-        <v>0.1941306238901377</v>
+        <v>0.1941306238901383</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>0.08481675620028961</v>
+        <v>0.08481675620029022</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>-0.1144225231860246</v>
+        <v>-0.114422523186024</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>-0.3774401956753861</v>
+        <v>-0.3774401956753855</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>-0.4600980209512142</v>
+        <v>-0.4600980209512136</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         </is>
       </c>
       <c r="C123">
-        <v>-0.3624018725614808</v>
+        <v>-0.3624018725614802</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>-0.1521087187873687</v>
+        <v>-0.1521087187873681</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -4475,7 +4475,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>0.1365242467688533</v>
+        <v>0.1365242467688539</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         </is>
       </c>
       <c r="C126">
-        <v>0.2425209253275457</v>
+        <v>0.2425209253275464</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="C127">
-        <v>0.2049756886159528</v>
+        <v>0.2049756886159534</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>0.05338704611890914</v>
+        <v>0.05338704611890975</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>-0.1845305401314051</v>
+        <v>-0.1845305401314045</v>
       </c>
       <c r="D129">
         <v>0</v>

--- a/results/4-2021/fim-interactive-2021-04.xlsx
+++ b/results/4-2021/fim-interactive-2021-04.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.3089152225206647</v>
+        <v>-0.4473607181962918</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1052863258439567</v>
+        <v>-0.05543555207757867</v>
       </c>
       <c r="F2">
         <v>0.2333777762083635</v>
@@ -431,7 +431,7 @@
         <v>0.1404586827899792</v>
       </c>
       <c r="H2">
-        <v>-0.2685501331543859</v>
+        <v>-0.4292720110759213</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -449,13 +449,13 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0.5961416820363354</v>
+        <v>-0.750661216815415</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-1.725754841835888</v>
+        <v>-1.899264906590694</v>
       </c>
       <c r="F3">
         <v>-1.309037505585076</v>
@@ -464,7 +464,7 @@
         <v>0.04210926371058449</v>
       </c>
       <c r="H3">
-        <v>-0.4588265999613961</v>
+        <v>-0.6323366647162019</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="C4">
-        <v>-0.4835708438101971</v>
+        <v>-0.6202475166906858</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.2594600849414026</v>
+        <v>-0.321597518297339</v>
       </c>
       <c r="F4">
         <v>0.4745635077693316</v>
@@ -497,7 +497,7 @@
         <v>-0.5055742591172933</v>
       </c>
       <c r="H4">
-        <v>-0.2284493335934409</v>
+        <v>-0.2905867669493774</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="C5">
-        <v>-0.725506381593753</v>
+        <v>-0.8457405798984421</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.022096925441679</v>
+        <v>-1.106664342628155</v>
       </c>
       <c r="F5">
         <v>-0.7492572760138498</v>
@@ -530,7 +530,7 @@
         <v>-0.2541812693871343</v>
       </c>
       <c r="H5">
-        <v>-0.01865838004069443</v>
+        <v>-0.1032257972271711</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -548,13 +548,13 @@
         </is>
       </c>
       <c r="C6">
-        <v>-0.7814426525385654</v>
+        <v>-0.8816084793756787</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-0.1184587579352926</v>
+        <v>-0.1989071499865248</v>
       </c>
       <c r="F6">
         <v>0.04483485323365277</v>
@@ -563,7 +563,7 @@
         <v>-0.269846467960747</v>
       </c>
       <c r="H6">
-        <v>0.1065528567918016</v>
+        <v>0.02610446474056943</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C7">
-        <v>-0.1693811828235541</v>
+        <v>-0.2216007562274616</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.7224910370241573</v>
+        <v>0.7407659860021749</v>
       </c>
       <c r="F7">
         <v>0.4263066381764687</v>
@@ -596,7 +596,7 @@
         <v>0.04616673541438622</v>
       </c>
       <c r="H7">
-        <v>0.2500176634333025</v>
+        <v>0.2682926124113201</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.187342370786194</v>
+        <v>0.1363038392515172</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1.16743412949759</v>
+        <v>1.110020863618576</v>
       </c>
       <c r="F8">
         <v>0.3957351835397209</v>
@@ -629,7 +629,7 @@
         <v>0.2771237505330946</v>
       </c>
       <c r="H8">
-        <v>0.4945751954247744</v>
+        <v>0.4371619295457608</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.659762244982127</v>
+        <v>0.6428404611994995</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.8675825713420535</v>
+        <v>0.919482145163774</v>
       </c>
       <c r="F9">
         <v>-0.3133908777045966</v>
@@ -662,7 +662,7 @@
         <v>-0.3299558511392216</v>
       </c>
       <c r="H9">
-        <v>1.510929300185872</v>
+        <v>1.562828874007592</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>1.187733762100125</v>
+        <v>1.215600279013287</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1.993427310536698</v>
+        <v>2.092132121268624</v>
       </c>
       <c r="F10">
         <v>0.134639559458924</v>
@@ -695,7 +695,7 @@
         <v>0.5487860873051168</v>
       </c>
       <c r="H10">
-        <v>1.310001663772657</v>
+        <v>1.408706474504583</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="C11">
-        <v>1.579354523063457</v>
+        <v>1.642046503629114</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.288974080877486</v>
+        <v>2.446550884465484</v>
       </c>
       <c r="F11">
         <v>1.064684215917318</v>
@@ -728,7 +728,7 @@
         <v>-0.2800899846201557</v>
       </c>
       <c r="H11">
-        <v>1.504379849580323</v>
+        <v>1.661956653168322</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>1.803606136984175</v>
+        <v>1.91749723866574</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.064440585180462</v>
+        <v>2.21182380376508</v>
       </c>
       <c r="F12">
         <v>0.3314907401875122</v>
@@ -761,7 +761,7 @@
         <v>-0.2431236695676751</v>
       </c>
       <c r="H12">
-        <v>1.976073514560625</v>
+        <v>2.123456733145243</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>1.975648476037217</v>
+        <v>2.100013910376582</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.555751927554222</v>
+        <v>1.649548832007145</v>
       </c>
       <c r="F13">
         <v>-0.07187942321930438</v>
@@ -794,7 +794,7 @@
         <v>-0.006987190920237668</v>
       </c>
       <c r="H13">
-        <v>1.634618541693764</v>
+        <v>1.728415446146687</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>1.781018200090986</v>
+        <v>1.902512992358014</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.214906206751771</v>
+        <v>1.302128449194349</v>
       </c>
       <c r="F14">
         <v>0.3594928607927821</v>
@@ -827,7 +827,7 @@
         <v>-0.2401286285027327</v>
       </c>
       <c r="H14">
-        <v>1.095541974461722</v>
+        <v>1.1827642169043</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>1.408568686016787</v>
+        <v>1.488358911473995</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7991760245806912</v>
+        <v>0.7899345609294117</v>
       </c>
       <c r="F15">
         <v>0.05441334298158673</v>
@@ -860,7 +860,7 @@
         <v>-0.4451002281072685</v>
       </c>
       <c r="H15">
-        <v>1.189862909706373</v>
+        <v>1.180621446055093</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="C16">
-        <v>1.214355513668953</v>
+        <v>1.272387508379531</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.287587895789127</v>
+        <v>1.347938191387222</v>
       </c>
       <c r="F16">
         <v>1.679527655482357</v>
@@ -893,7 +893,7 @@
         <v>-1.417971153529913</v>
       </c>
       <c r="H16">
-        <v>1.026031393836683</v>
+        <v>1.086381689434778</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.9544107243728131</v>
+        <v>1.003145431945431</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5159727703696599</v>
+        <v>0.5725805262707457</v>
       </c>
       <c r="F17">
         <v>-0.7179306953627569</v>
@@ -926,7 +926,7 @@
         <v>0.4159388368257598</v>
       </c>
       <c r="H17">
-        <v>0.817964628906657</v>
+        <v>0.8745723848077429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.7940405363404233</v>
+        <v>0.8372384597007069</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5734254546222122</v>
+        <v>0.6385005602154539</v>
       </c>
       <c r="F18">
         <v>0.5233576369569283</v>
@@ -959,7 +959,7 @@
         <v>-0.5308237303532207</v>
       </c>
       <c r="H18">
-        <v>0.5808915480185046</v>
+        <v>0.6459666536117463</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -977,13 +977,13 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.5723188194311502</v>
+        <v>0.6424426267687813</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>-0.08771084305640155</v>
+        <v>0.01075122920170907</v>
       </c>
       <c r="F19">
         <v>-0.3898189302143668</v>
@@ -992,7 +992,7 @@
         <v>0.2495388043134472</v>
       </c>
       <c r="H19">
-        <v>0.0525692828445181</v>
+        <v>0.1510313551026287</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1010,13 +1010,13 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.1696622743542244</v>
+        <v>0.2402522994060152</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-0.3230382845185756</v>
+        <v>-0.2608231180638426</v>
       </c>
       <c r="F20">
         <v>-0.2671321184306671</v>
@@ -1025,7 +1025,7 @@
         <v>-0.01944955732500092</v>
       </c>
       <c r="H20">
-        <v>-0.03645660876290754</v>
+        <v>0.02575855769182542</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1043,13 +1043,13 @@
         </is>
       </c>
       <c r="C21">
-        <v>-0.1230806558573229</v>
+        <v>-0.05352719659349553</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-0.6549989504765292</v>
+        <v>-0.6025374577272973</v>
       </c>
       <c r="F21">
         <v>0.3540577905417822</v>
@@ -1058,7 +1058,7 @@
         <v>-0.7150998054526266</v>
       </c>
       <c r="H21">
-        <v>-0.2939569355656848</v>
+        <v>-0.2414954428164527</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C22">
-        <v>-0.4735441962635751</v>
+        <v>-0.4116919491591884</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-0.828428707002797</v>
+        <v>-0.7941584500473177</v>
       </c>
       <c r="F22">
         <v>-0.3406572730422016</v>
@@ -1091,7 +1091,7 @@
         <v>-0.2145297193186204</v>
       </c>
       <c r="H22">
-        <v>-0.273241714641975</v>
+        <v>-0.2389714576864956</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         </is>
       </c>
       <c r="C23">
-        <v>-0.6378309966947432</v>
+        <v>-0.5894631300344558</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-0.7448580447810737</v>
+        <v>-0.7003334942993603</v>
       </c>
       <c r="F23">
         <v>0.03477795903244835</v>
@@ -1124,7 +1124,7 @@
         <v>-0.1432551642345525</v>
       </c>
       <c r="H23">
-        <v>-0.6363808395789695</v>
+        <v>-0.5918562890972562</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         </is>
       </c>
       <c r="C24">
-        <v>-0.8346806318299241</v>
+        <v>-0.7958864319955527</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-1.1104368250593</v>
+        <v>-1.08651632590823</v>
       </c>
       <c r="F24">
         <v>-0.2581617717552114</v>
@@ -1157,7 +1157,7 @@
         <v>-0.2629204538486371</v>
       </c>
       <c r="H24">
-        <v>-0.589354599455451</v>
+        <v>-0.5654341003043815</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="C25">
-        <v>-0.874772771204726</v>
+        <v>-0.8406774998350605</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-0.815367507975737</v>
+        <v>-0.7817017290853285</v>
       </c>
       <c r="F25">
         <v>-0.09701758812802284</v>
@@ -1190,7 +1190,7 @@
         <v>-0.1133965690343628</v>
       </c>
       <c r="H25">
-        <v>-0.6049533508133513</v>
+        <v>-0.5712875719229429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1208,13 +1208,13 @@
         </is>
       </c>
       <c r="C26">
-        <v>-0.8909551348842458</v>
+        <v>-0.8599521177819473</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>-0.8931581617208759</v>
+        <v>-0.8712569218348647</v>
       </c>
       <c r="F26">
         <v>-0.2684271949287784</v>
@@ -1223,7 +1223,7 @@
         <v>-0.1207308918515964</v>
       </c>
       <c r="H26">
-        <v>-0.5040000749405011</v>
+        <v>-0.4820988350544899</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         </is>
       </c>
       <c r="C27">
-        <v>-0.7377453309264418</v>
+        <v>-0.710822001298983</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-0.1320188289498577</v>
+        <v>-0.103813028367503</v>
       </c>
       <c r="F27">
         <v>0.6948582691936486</v>
@@ -1256,7 +1256,7 @@
         <v>-0.1602128174564674</v>
       </c>
       <c r="H27">
-        <v>-0.6666642806870389</v>
+        <v>-0.6384584801046841</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         </is>
       </c>
       <c r="C28">
-        <v>-0.748858195276466</v>
+        <v>-0.7232196210157864</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>-1.154888282459397</v>
+        <v>-1.136106804775444</v>
       </c>
       <c r="F28">
         <v>-0.484806006091638</v>
@@ -1289,7 +1289,7 @@
         <v>0.0396157539499076</v>
       </c>
       <c r="H28">
-        <v>-0.709698030317666</v>
+        <v>-0.6909165526337133</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="C29">
-        <v>-0.7469432646038168</v>
+        <v>-0.7318808622891242</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-0.8077077852851402</v>
+        <v>-0.8163466941786798</v>
       </c>
       <c r="F29">
         <v>-0.6587817018926786</v>
@@ -1322,7 +1322,7 @@
         <v>0.1441567294988135</v>
       </c>
       <c r="H29">
-        <v>-0.2930828128912751</v>
+        <v>-0.3017217217848146</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C30">
-        <v>-0.5470808149172867</v>
+        <v>-0.530485164015152</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-0.09370836297475529</v>
+        <v>-0.06567412873897574</v>
       </c>
       <c r="F30">
         <v>0.04176929100633248</v>
@@ -1355,7 +1355,7 @@
         <v>0.2041856176544432</v>
       </c>
       <c r="H30">
-        <v>-0.339663271635531</v>
+        <v>-0.3116290373997515</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         </is>
       </c>
       <c r="C31">
-        <v>-0.6735363580335919</v>
+        <v>-0.6554992317934318</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>-0.6378410014150786</v>
+        <v>-0.6038692994806224</v>
       </c>
       <c r="F31">
         <v>-0.452177988166567</v>
@@ -1388,7 +1388,7 @@
         <v>0.1867143689001947</v>
       </c>
       <c r="H31">
-        <v>-0.3723773821487064</v>
+        <v>-0.3384056802142501</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C32">
-        <v>-0.3868303425345372</v>
+        <v>-0.3599521808412944</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>-0.008064220463177563</v>
+        <v>0.04608139903310615</v>
       </c>
       <c r="F32">
         <v>0.6822532047943331</v>
@@ -1421,7 +1421,7 @@
         <v>-0.3593837034811906</v>
       </c>
       <c r="H32">
-        <v>-0.33093372177632</v>
+        <v>-0.2767881022800363</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C33">
-        <v>-0.2213123354826869</v>
+        <v>-0.173967158228623</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>-0.1456357570777391</v>
+        <v>-0.07240660372799418</v>
       </c>
       <c r="F33">
         <v>-0.08898283282641378</v>
@@ -1454,7 +1454,7 @@
         <v>0.06326734904571577</v>
       </c>
       <c r="H33">
-        <v>-0.1199202732970411</v>
+        <v>-0.04669111994729616</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C34">
-        <v>-0.1330786481629353</v>
+        <v>-0.08493330510828803</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0.2592263863042512</v>
+        <v>0.2904612837423641</v>
       </c>
       <c r="F34">
         <v>0.1311912137291786</v>
@@ -1487,7 +1487,7 @@
         <v>0.1044408655517766</v>
       </c>
       <c r="H34">
-        <v>0.02359430702329594</v>
+        <v>0.05482920446140889</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.007577974326460485</v>
+        <v>0.05372247822976707</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>-0.07521451145749551</v>
+        <v>-0.04924616612840199</v>
       </c>
       <c r="F35">
         <v>0.314360154882603</v>
@@ -1520,7 +1520,7 @@
         <v>-0.505007601840344</v>
       </c>
       <c r="H35">
-        <v>0.1154329355002455</v>
+        <v>0.141401280829339</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1538,13 +1538,13 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.1777598240430642</v>
+        <v>0.6978714403221068</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0.6726631784032374</v>
+        <v>2.622677247402465</v>
       </c>
       <c r="F36">
         <v>0.5269285221355945</v>
@@ -1553,7 +1553,7 @@
         <v>-0.2023526466083331</v>
       </c>
       <c r="H36">
-        <v>0.348087302875976</v>
+        <v>2.298101371875204</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1571,13 +1571,13 @@
         </is>
       </c>
       <c r="C37">
-        <v>0.5031670265370298</v>
+        <v>1.102225457106431</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>1.155993052898123</v>
+        <v>1.545009463409303</v>
       </c>
       <c r="F37">
         <v>-0.007582311275042275</v>
@@ -1586,7 +1586,7 @@
         <v>0.3037210870880067</v>
       </c>
       <c r="H37">
-        <v>0.8598542770851587</v>
+        <v>1.248870687596339</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.8384160782160965</v>
+        <v>1.49102677408241</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1.600222593020518</v>
+        <v>1.845666551646281</v>
       </c>
       <c r="F38">
         <v>0.5079759695624959</v>
@@ -1619,7 +1619,7 @@
         <v>-0.3027518425874914</v>
       </c>
       <c r="H38">
-        <v>1.394998466045514</v>
+        <v>1.640442424671277</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1637,13 +1637,13 @@
         </is>
       </c>
       <c r="C39">
-        <v>1.708453030583278</v>
+        <v>2.483438986864852</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>3.40493329801123</v>
+        <v>3.920402685001367</v>
       </c>
       <c r="F39">
         <v>0.1763227827716732</v>
@@ -1652,7 +1652,7 @@
         <v>0.4260862778724393</v>
       </c>
       <c r="H39">
-        <v>2.802524237367117</v>
+        <v>3.317993624357254</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1670,13 +1670,13 @@
         </is>
       </c>
       <c r="C40">
-        <v>2.624220363770252</v>
+        <v>2.683063283821728</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>4.335732511151131</v>
+        <v>3.421174435229967</v>
       </c>
       <c r="F40">
         <v>1.636962443617589</v>
@@ -1685,7 +1685,7 @@
         <v>-0.7157767290132139</v>
       </c>
       <c r="H40">
-        <v>3.414546796546756</v>
+        <v>2.499988720625592</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="C41">
-        <v>3.044472795041643</v>
+        <v>3.110750806192812</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>2.837002777983687</v>
+        <v>3.255759552893643</v>
       </c>
       <c r="F41">
         <v>0.4137050260405467</v>
@@ -1718,7 +1718,7 @@
         <v>-0.4544765736067359</v>
       </c>
       <c r="H41">
-        <v>2.877774325549876</v>
+        <v>3.296531100459832</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         </is>
       </c>
       <c r="C42">
-        <v>3.170437896260551</v>
+        <v>3.323419288462163</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>2.104082997896153</v>
+        <v>2.696340480723685</v>
       </c>
       <c r="F42">
         <v>0.6212413784270605</v>
@@ -1751,7 +1751,7 @@
         <v>-0.7226925984331321</v>
       </c>
       <c r="H42">
-        <v>2.205534217902224</v>
+        <v>2.797791700729757</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1769,13 +1769,13 @@
         </is>
       </c>
       <c r="C43">
-        <v>2.591968047314239</v>
+        <v>2.794524824146613</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1.09105390222598</v>
+        <v>1.804824827739167</v>
       </c>
       <c r="F43">
         <v>0.482043215978</v>
@@ -1784,7 +1784,7 @@
         <v>-1.071943723712426</v>
       </c>
       <c r="H43">
-        <v>1.680954409960405</v>
+        <v>2.394725335473592</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         </is>
       </c>
       <c r="C44">
-        <v>1.744807703190421</v>
+        <v>2.24404426908031</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0.9470911346558603</v>
+        <v>1.219252214964755</v>
       </c>
       <c r="F44">
         <v>0.4121565451296765</v>
@@ -1817,7 +1817,7 @@
         <v>-0.384564030742513</v>
       </c>
       <c r="H44">
-        <v>0.9194986202686968</v>
+        <v>1.191659700577592</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -1835,13 +1835,13 @@
         </is>
       </c>
       <c r="C45">
-        <v>0.9154031574688144</v>
+        <v>1.447539085638475</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>-0.48061540490274</v>
+        <v>0.06973881912630464</v>
       </c>
       <c r="F45">
         <v>0.07610774598225573</v>
@@ -1850,7 +1850,7 @@
         <v>-0.9349864041871816</v>
       </c>
       <c r="H45">
-        <v>0.3782632533021859</v>
+        <v>0.9286174773312306</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -1868,13 +1868,13 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.2716346189340595</v>
+        <v>0.7838235089646943</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>-0.4709911562428667</v>
+        <v>0.04147817402856291</v>
       </c>
       <c r="F46">
         <v>-0.7152897442506611</v>
@@ -1883,7 +1883,7 @@
         <v>-0.09686485019733715</v>
       </c>
       <c r="H46">
-        <v>0.3411634382051315</v>
+        <v>0.8536327684765611</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="C47">
-        <v>-0.4356063451381581</v>
+        <v>-0.09941262511389165</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>-1.737909954062891</v>
+        <v>-1.728119708575177</v>
       </c>
       <c r="F47">
         <v>-0.7874200661597017</v>
@@ -1916,7 +1916,7 @@
         <v>-0.5287490716880302</v>
       </c>
       <c r="H47">
-        <v>-0.4217408162151589</v>
+        <v>-0.4119505707274456</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         </is>
       </c>
       <c r="C48">
-        <v>-1.039389794220573</v>
+        <v>-0.7922700705288464</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>-1.468042661673799</v>
+        <v>-1.552177566695064</v>
       </c>
       <c r="F48">
         <v>-0.1878159829152811</v>
@@ -1949,7 +1949,7 @@
         <v>-0.6771354149583393</v>
       </c>
       <c r="H48">
-        <v>-0.6030912638001786</v>
+        <v>-0.6872261688214434</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -1967,13 +1967,13 @@
         </is>
       </c>
       <c r="C49">
-        <v>-1.483539245715315</v>
+        <v>-1.403514898247283</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>-2.25721321088171</v>
+        <v>-2.375240491747443</v>
       </c>
       <c r="F49">
         <v>-1.418877346491199</v>
@@ -1982,7 +1982,7 @@
         <v>-0.06007377197611408</v>
       </c>
       <c r="H49">
-        <v>-0.7782620924143965</v>
+        <v>-0.8962893732801295</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2000,13 +2000,13 @@
         </is>
       </c>
       <c r="C50">
-        <v>-1.658437757251715</v>
+        <v>-1.731098325127011</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>-1.170585202388465</v>
+        <v>-1.268855533490349</v>
       </c>
       <c r="F50">
         <v>-0.2190166728346963</v>
@@ -2015,7 +2015,7 @@
         <v>-0.1489431905571671</v>
       </c>
       <c r="H50">
-        <v>-0.8026253389966017</v>
+        <v>-0.9008956700984859</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2033,13 +2033,13 @@
         </is>
       </c>
       <c r="C51">
-        <v>-1.574957982834274</v>
+        <v>-1.705224055058821</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>-1.403990856393128</v>
+        <v>-1.624622628302418</v>
       </c>
       <c r="F51">
         <v>-0.3992058136055942</v>
@@ -2048,7 +2048,7 @@
         <v>-0.2643583732837186</v>
       </c>
       <c r="H51">
-        <v>-0.7404266695038153</v>
+        <v>-0.9610584414131049</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2066,13 +2066,13 @@
         </is>
       </c>
       <c r="C52">
-        <v>-1.523747278900476</v>
+        <v>-1.679226198220599</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>-1.263199845938605</v>
+        <v>-1.448186139342174</v>
       </c>
       <c r="F52">
         <v>-0.6523158177408619</v>
@@ -2081,7 +2081,7 @@
         <v>-0.07465067781977963</v>
       </c>
       <c r="H52">
-        <v>-0.5362333503779632</v>
+        <v>-0.721219643781533</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C53">
-        <v>-1.17600940616483</v>
+        <v>-1.342255317234756</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>-0.8662617199391249</v>
+        <v>-1.02735696780407</v>
       </c>
       <c r="F53">
         <v>-0.07865339110683074</v>
@@ -2114,7 +2114,7 @@
         <v>-0.3638544041078548</v>
       </c>
       <c r="H53">
-        <v>-0.4237539247244394</v>
+        <v>-0.5848491725893841</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         </is>
       </c>
       <c r="C54">
-        <v>-1.274608838046659</v>
+        <v>-1.458709666146793</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>-1.564982929915782</v>
+        <v>-1.7346729291385</v>
       </c>
       <c r="F54">
         <v>-0.894415113343322</v>
@@ -2147,7 +2147,7 @@
         <v>-0.1912736891047103</v>
       </c>
       <c r="H54">
-        <v>-0.4792941274677501</v>
+        <v>-0.648984126690468</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         </is>
       </c>
       <c r="C55">
-        <v>-1.427357909473539</v>
+        <v>-1.540998532076398</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>-2.014987142100646</v>
+        <v>-1.953778092020834</v>
       </c>
       <c r="F55">
         <v>-1.055602266003916</v>
@@ -2180,7 +2180,7 @@
         <v>0.04128296913634338</v>
       </c>
       <c r="H55">
-        <v>-1.000667845233074</v>
+        <v>-0.9394587951532617</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2198,13 +2198,13 @@
         </is>
       </c>
       <c r="C56">
-        <v>-1.484729728246252</v>
+        <v>-1.538867771170682</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>-1.49268712102946</v>
+        <v>-1.439663095719312</v>
       </c>
       <c r="F56">
         <v>-0.3544532006657043</v>
@@ -2213,7 +2213,7 @@
         <v>-0.1045910689845618</v>
       </c>
       <c r="H56">
-        <v>-1.033642851379194</v>
+        <v>-0.9806188260690463</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="C57">
-        <v>-1.597123369177318</v>
+        <v>-1.602704860878881</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>-1.315836283663385</v>
+        <v>-1.282705326636867</v>
       </c>
       <c r="F57">
         <v>-0.6201889375747819</v>
@@ -2246,7 +2246,7 @@
         <v>-0.1105753904393213</v>
       </c>
       <c r="H57">
-        <v>-0.5850719556492821</v>
+        <v>-0.5519409986227638</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         </is>
       </c>
       <c r="C58">
-        <v>-1.585818698102217</v>
+        <v>-1.54508329746115</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>-1.51976424561538</v>
+        <v>-1.504186675467573</v>
       </c>
       <c r="F58">
         <v>-0.9240355786028976</v>
@@ -2279,7 +2279,7 @@
         <v>0.007780926160631752</v>
       </c>
       <c r="H58">
-        <v>-0.603509593173114</v>
+        <v>-0.5879320230253075</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2297,13 +2297,13 @@
         </is>
       </c>
       <c r="C59">
-        <v>-1.460510159958871</v>
+        <v>-1.426155285042448</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>-1.513752989527263</v>
+        <v>-1.478066042346026</v>
       </c>
       <c r="F59">
         <v>-0.2652873196222635</v>
@@ -2312,7 +2312,7 @@
         <v>-0.3704449063381725</v>
       </c>
       <c r="H59">
-        <v>-0.8780207635668269</v>
+        <v>-0.8423338163855892</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         </is>
       </c>
       <c r="C60">
-        <v>-1.344602209026618</v>
+        <v>-1.297660422506551</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>-1.029055317300448</v>
+        <v>-0.9256836455757278</v>
       </c>
       <c r="F60">
         <v>-0.09967762169687738</v>
@@ -2345,7 +2345,7 @@
         <v>-0.1376065166558411</v>
       </c>
       <c r="H60">
-        <v>-0.7917711789477293</v>
+        <v>-0.6883995072230094</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         </is>
       </c>
       <c r="C61">
-        <v>-1.123167204959321</v>
+        <v>-1.057535417828103</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>-0.430096267394198</v>
+        <v>-0.322205307923076</v>
       </c>
       <c r="F61">
         <v>0.02857513780354837</v>
@@ -2378,7 +2378,7 @@
         <v>0.1310277504586127</v>
       </c>
       <c r="H61">
-        <v>-0.5896991556563591</v>
+        <v>-0.4818081961852371</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="C62">
-        <v>-0.9584561366954285</v>
+        <v>-0.8520499369820236</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>-0.86091997255981</v>
+        <v>-0.682244752083254</v>
       </c>
       <c r="F62">
         <v>-0.8518869838397389</v>
@@ -2411,7 +2411,7 @@
         <v>0.490525022202552</v>
       </c>
       <c r="H62">
-        <v>-0.499558010922623</v>
+        <v>-0.3208827904460671</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2429,13 +2429,13 @@
         </is>
       </c>
       <c r="C63">
-        <v>-0.6284561219092837</v>
+        <v>-0.4756103406126506</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>-0.1937529303826841</v>
+        <v>0.02769234313146655</v>
       </c>
       <c r="F63">
         <v>0.04226929196402519</v>
@@ -2444,7 +2444,7 @@
         <v>3.780774064390813e-005</v>
       </c>
       <c r="H63">
-        <v>-0.2360600300873532</v>
+        <v>-0.01461475657320255</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="C64">
-        <v>-0.347145100290964</v>
+        <v>-0.1804785173695849</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.09618876917283087</v>
+        <v>0.254843647396535</v>
       </c>
       <c r="F64">
         <v>-0.07727373923917674</v>
@@ -2477,7 +2477,7 @@
         <v>0.3625525961816568</v>
       </c>
       <c r="H64">
-        <v>-0.1890900877696492</v>
+        <v>-0.03043520954594503</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2495,13 +2495,13 @@
         </is>
       </c>
       <c r="C65">
-        <v>-0.2701087928459026</v>
+        <v>-0.09663630935559375</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>-0.1219510376139524</v>
+        <v>0.01316352413288865</v>
       </c>
       <c r="F65">
         <v>-0.04686896735870279</v>
@@ -2510,7 +2510,7 @@
         <v>0.04988250846335739</v>
       </c>
       <c r="H65">
-        <v>-0.124964578718607</v>
+        <v>0.01014998302823406</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2528,13 +2528,13 @@
         </is>
       </c>
       <c r="C66">
-        <v>-0.1102319301730344</v>
+        <v>0.04475222562640352</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>-0.2214125218683371</v>
+        <v>-0.1166906121552649</v>
       </c>
       <c r="F66">
         <v>0.1257181331200811</v>
@@ -2543,7 +2543,7 @@
         <v>-0.1799061624043731</v>
       </c>
       <c r="H66">
-        <v>-0.1672244925840451</v>
+        <v>-0.06250258287097288</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2561,13 +2561,13 @@
         </is>
       </c>
       <c r="C67">
-        <v>0.01687578163414501</v>
+        <v>0.1144159337551519</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.3146779168460335</v>
+        <v>0.3063471756464601</v>
       </c>
       <c r="F67">
         <v>-0.01291307198970298</v>
@@ -2576,7 +2576,7 @@
         <v>0.3577793423292743</v>
       </c>
       <c r="H67">
-        <v>-0.03018835349353774</v>
+        <v>-0.03851909469311117</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         </is>
       </c>
       <c r="C68">
-        <v>-0.1169342865563332</v>
+        <v>-0.07062475272005822</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>-0.439051503589082</v>
+        <v>-0.4853190985043055</v>
       </c>
       <c r="F68">
         <v>-0.2071193824640229</v>
@@ -2609,7 +2609,7 @@
         <v>-0.2031659546402318</v>
       </c>
       <c r="H68">
-        <v>-0.02876616648482733</v>
+        <v>-0.07503376140005087</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2627,13 +2627,13 @@
         </is>
       </c>
       <c r="C69">
-        <v>-0.1005225621175315</v>
+        <v>-0.09920883405185757</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>-0.05630413985874561</v>
+        <v>-0.1011728011943087</v>
       </c>
       <c r="F69">
         <v>-0.0623775759304781</v>
@@ -2642,7 +2642,7 @@
         <v>0.1018272731845379</v>
       </c>
       <c r="H69">
-        <v>-0.09575383711280538</v>
+        <v>-0.1406224984483685</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -2660,13 +2660,13 @@
         </is>
       </c>
       <c r="C70">
-        <v>-0.08214860284095134</v>
+        <v>-0.1228574354265295</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>-0.1479166847620165</v>
+        <v>-0.2112850176539526</v>
       </c>
       <c r="F70">
         <v>-0.1492939280028913</v>
@@ -2675,7 +2675,7 @@
         <v>0.04948709127352192</v>
       </c>
       <c r="H70">
-        <v>-0.04810984803264717</v>
+        <v>-0.1114781809245832</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2693,13 +2693,13 @@
         </is>
       </c>
       <c r="C71">
-        <v>-0.2113124597775305</v>
+        <v>-0.2559640401798267</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>-0.2019775109002833</v>
+        <v>-0.2260792433667286</v>
       </c>
       <c r="F71">
         <v>-0.2861096170247435</v>
@@ -2708,7 +2708,7 @@
         <v>0.008779072988351469</v>
       </c>
       <c r="H71">
-        <v>0.07535303313610875</v>
+        <v>0.05125130066966337</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         </is>
       </c>
       <c r="C72">
-        <v>-0.086994820191161</v>
+        <v>-0.1195735114443301</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.05821905475639612</v>
+        <v>0.06024301643768103</v>
       </c>
       <c r="F72">
         <v>0.1095599962451903</v>
@@ -2741,7 +2741,7 @@
         <v>-0.1236493124600871</v>
       </c>
       <c r="H72">
-        <v>0.07230837097129299</v>
+        <v>0.0743323326525779</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2759,13 +2759,13 @@
         </is>
       </c>
       <c r="C73">
-        <v>-0.1379681064909512</v>
+        <v>-0.1548208593280465</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>-0.2601972850579062</v>
+        <v>-0.2421621927291743</v>
       </c>
       <c r="F73">
         <v>-0.3646648012306533</v>
@@ -2774,7 +2774,7 @@
         <v>0.1081090495870412</v>
       </c>
       <c r="H73">
-        <v>-0.003641533414294119</v>
+        <v>0.01439355891443772</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -2792,13 +2792,13 @@
         </is>
       </c>
       <c r="C74">
-        <v>-0.0953218330666676</v>
+        <v>-0.09513512024536777</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0.02266840893511765</v>
+        <v>0.02745793867676233</v>
       </c>
       <c r="F74">
         <v>0.2233552207519753</v>
@@ -2807,7 +2807,7 @@
         <v>-0.0276286458410436</v>
       </c>
       <c r="H74">
-        <v>-0.173058165975814</v>
+        <v>-0.1682686362341693</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         </is>
       </c>
       <c r="C75">
-        <v>-0.0587749694290399</v>
+        <v>-0.03755321023887166</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>-0.05579005634977245</v>
+        <v>0.004248396659255804</v>
       </c>
       <c r="F75">
         <v>-0.01452217189572375</v>
@@ -2840,7 +2840,7 @@
         <v>-0.0401270963778007</v>
       </c>
       <c r="H75">
-        <v>-0.001140788076247998</v>
+        <v>0.05889766493278026</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2858,13 +2858,13 @@
         </is>
       </c>
       <c r="C76">
-        <v>0.02419450185335675</v>
+        <v>0.04936728450947732</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.3900969398859827</v>
+        <v>0.407924995431077</v>
       </c>
       <c r="F76">
         <v>0.005511485073067285</v>
@@ -2873,7 +2873,7 @@
         <v>0.1792447287919484</v>
       </c>
       <c r="H76">
-        <v>0.205340726020967</v>
+        <v>0.2231687815660613</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="C77">
-        <v>0.1268361169606549</v>
+        <v>0.145134873941772</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.1503691753712863</v>
+        <v>0.1409081650000043</v>
       </c>
       <c r="F77">
         <v>0.1800168196309454</v>
@@ -2906,7 +2906,7 @@
         <v>-0.06955336766768555</v>
       </c>
       <c r="H77">
-        <v>0.03990572340802648</v>
+        <v>0.03044471303674441</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         </is>
       </c>
       <c r="C78">
-        <v>0.01037706306903165</v>
+        <v>0.02477646970569854</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>-0.4431678066313753</v>
+        <v>-0.4539756782675314</v>
       </c>
       <c r="F78">
         <v>-0.03582412491537686</v>
@@ -2939,7 +2939,7 @@
         <v>-0.4521314103221555</v>
       </c>
       <c r="H78">
-        <v>0.0447877286061571</v>
+        <v>0.033979856970001</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -2957,13 +2957,13 @@
         </is>
       </c>
       <c r="C79">
-        <v>0.04187066844226862</v>
+        <v>0.07114922658372051</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.0701843651431754</v>
+        <v>0.1897394241713437</v>
       </c>
       <c r="F79">
         <v>-0.1311434562319765</v>
@@ -2972,7 +2972,7 @@
         <v>0.2287385320819317</v>
       </c>
       <c r="H79">
-        <v>-0.02741071070677979</v>
+        <v>0.0921443483213885</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -2990,13 +2990,13 @@
         </is>
       </c>
       <c r="C80">
-        <v>0.06299475069650898</v>
+        <v>0.1171415577955961</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.4745932689029442</v>
+        <v>0.5918943202785794</v>
       </c>
       <c r="F80">
         <v>0.4294982885455169</v>
@@ -3005,7 +3005,7 @@
         <v>0.09400963955481735</v>
       </c>
       <c r="H80">
-        <v>-0.0489146591973901</v>
+        <v>0.06838639217824505</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3023,13 +3023,13 @@
         </is>
       </c>
       <c r="C81">
-        <v>0.08956682525733455</v>
+        <v>0.1767472212666528</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.2566574736145886</v>
+        <v>0.3793308188842309</v>
       </c>
       <c r="F81">
         <v>0.1624414325396765</v>
@@ -3038,7 +3038,7 @@
         <v>-0.126471261572372</v>
       </c>
       <c r="H81">
-        <v>0.2206873026472841</v>
+        <v>0.3433606479169264</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3056,13 +3056,13 @@
         </is>
       </c>
       <c r="C82">
-        <v>0.2860030499491092</v>
+        <v>0.4079504437244641</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0.3425770921357235</v>
+        <v>0.4708372115637137</v>
       </c>
       <c r="F82">
         <v>0.3396640673993164</v>
@@ -3071,7 +3071,7 @@
         <v>-0.2516717453731058</v>
       </c>
       <c r="H82">
-        <v>0.2545847701095129</v>
+        <v>0.3828448895375031</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         </is>
       </c>
       <c r="C83">
-        <v>0.2850973714107967</v>
+        <v>0.394723067811189</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0.0665616509899252</v>
+        <v>0.1368299205182434</v>
       </c>
       <c r="F83">
         <v>-0.02673495978021815</v>
@@ -3104,7 +3104,7 @@
         <v>-0.07638969974248538</v>
       </c>
       <c r="H83">
-        <v>0.1696863105126287</v>
+        <v>0.2399545800409469</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         </is>
       </c>
       <c r="C84">
-        <v>3.725303467099431</v>
+        <v>4.099548580781831</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>14.23541765165748</v>
+        <v>15.41119637216115</v>
       </c>
       <c r="F84">
         <v>2.406389796745175</v>
@@ -3137,7 +3137,7 @@
         <v>-2.292664345522254</v>
       </c>
       <c r="H84">
-        <v>14.12169220043456</v>
+        <v>15.29747092093823</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="C85">
-        <v>4.377463058667948</v>
+        <v>5.054042672122884</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>2.865295839888658</v>
+        <v>4.197307184248439</v>
       </c>
       <c r="F85">
         <v>-0.5435376162898203</v>
@@ -3170,7 +3170,7 @@
         <v>-0.7811299870025823</v>
       </c>
       <c r="H85">
-        <v>4.18996344318106</v>
+        <v>5.521974787540842</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -3188,13 +3188,13 @@
         </is>
       </c>
       <c r="C86">
-        <v>3.21236309489733</v>
+        <v>4.169127500479288</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>-4.31782276294675</v>
+        <v>-3.068823475010667</v>
       </c>
       <c r="F86">
         <v>-0.2229197769496115</v>
@@ -3203,7 +3203,7 @@
         <v>-0.2512338410354649</v>
       </c>
       <c r="H86">
-        <v>-3.843669144961674</v>
+        <v>-2.594669857025591</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3221,13 +3221,13 @@
         </is>
       </c>
       <c r="C87">
-        <v>5.282290318860309</v>
+        <v>6.486543940454175</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>8.34627054684184</v>
+        <v>9.406495680417793</v>
       </c>
       <c r="F87">
         <v>1.148456641551472</v>
@@ -3236,7 +3236,7 @@
         <v>-0.3600782684252779</v>
       </c>
       <c r="H87">
-        <v>7.557892173715646</v>
+        <v>8.618117307291598</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>1.415601846951565</v>
+        <v>2.325910788419514</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>0.08213234295514882</v>
+        <v>0.659438448333153</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>0.6677973263260465</v>
+        <v>0.9328536097200301</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3353,13 +3353,13 @@
         </is>
       </c>
       <c r="C91">
-        <v>-1.587066169546117</v>
+        <v>-1.627990519146268</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>-0.6731834366468126</v>
+        <v>-0.8368808350473982</v>
       </c>
       <c r="F91">
         <v>-0.2507940361522072</v>
@@ -3368,7 +3368,7 @@
         <v>0.3877611295958299</v>
       </c>
       <c r="H91">
-        <v>-0.8101505300904353</v>
+        <v>-0.9738479284910208</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -3386,13 +3386,13 @@
         </is>
       </c>
       <c r="C92">
-        <v>-2.209768784352658</v>
+        <v>-2.250316444707575</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>-3.72214669520366</v>
+        <v>-3.720639938222724</v>
       </c>
       <c r="F92">
         <v>0.03073638495717679</v>
@@ -3401,7 +3401,7 @@
         <v>0.205856231790346</v>
       </c>
       <c r="H92">
-        <v>-3.958739311951182</v>
+        <v>-3.957232554970247</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -3419,13 +3419,13 @@
         </is>
       </c>
       <c r="C93">
-        <v>-2.161140813011599</v>
+        <v>-2.20203246423136</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>-2.27407029073277</v>
+        <v>-2.275446254192144</v>
       </c>
       <c r="F93">
         <v>0.09665293453422291</v>
@@ -3434,7 +3434,7 @@
         <v>0.1512351555391492</v>
       </c>
       <c r="H93">
-        <v>-2.521958380806142</v>
+        <v>-2.523334344265516</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -3452,13 +3452,13 @@
         </is>
       </c>
       <c r="C94">
-        <v>-1.810680684559447</v>
+        <v>-1.849611051814618</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>-0.5733223156545495</v>
+        <v>-0.5654771797961911</v>
       </c>
       <c r="F94">
         <v>0.09312370768446371</v>
@@ -3467,7 +3467,7 @@
         <v>0.09266818344615287</v>
       </c>
       <c r="H94">
-        <v>-0.7591142067851661</v>
+        <v>-0.7512690709268076</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -3485,13 +3485,13 @@
         </is>
       </c>
       <c r="C95">
-        <v>-2.125006351255308</v>
+        <v>-2.08192351726479</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>-1.930486103430256</v>
+        <v>-1.766130696848085</v>
       </c>
       <c r="F95">
         <v>-0.07809244489832719</v>
@@ -3500,7 +3500,7 @@
         <v>0.04164877327441237</v>
       </c>
       <c r="H95">
-        <v>-1.894042431806341</v>
+        <v>-1.72968702522417</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -3518,13 +3518,13 @@
         </is>
       </c>
       <c r="C96">
-        <v>-1.745113074087862</v>
+        <v>-1.700909138054503</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>-2.202573586533878</v>
+        <v>-2.196582421381579</v>
       </c>
       <c r="F96">
         <v>0.1671864564110747</v>
@@ -3533,7 +3533,7 @@
         <v>-0.2359414643208324</v>
       </c>
       <c r="H96">
-        <v>-2.13381857862412</v>
+        <v>-2.127827413471821</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -3551,13 +3551,13 @@
         </is>
       </c>
       <c r="C97">
-        <v>-1.742199801637665</v>
+        <v>-1.695512981568965</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>-2.262417200931978</v>
+        <v>-2.253861628249988</v>
       </c>
       <c r="F97">
         <v>-0.04454262810795627</v>
@@ -3566,7 +3566,7 @@
         <v>0.0458561061685083</v>
       </c>
       <c r="H97">
-        <v>-2.26373067899253</v>
+        <v>-2.25517510631054</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -3584,13 +3584,13 @@
         </is>
       </c>
       <c r="C98">
-        <v>-2.050466094628632</v>
+        <v>-2.005838416956509</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>-1.806387487618418</v>
+        <v>-1.80677892134637</v>
       </c>
       <c r="F98">
         <v>-0.04465233912845792</v>
@@ -3599,7 +3599,7 @@
         <v>0.05496150094622421</v>
       </c>
       <c r="H98">
-        <v>-1.816696649436184</v>
+        <v>-1.817088083164137</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="C99">
-        <v>-1.817666087996739</v>
+        <v>-1.814199113915838</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>-0.9992860769026831</v>
+        <v>-0.9995734846853991</v>
       </c>
       <c r="F99">
         <v>0.008679353111062443</v>
@@ -3632,7 +3632,7 @@
         <v>-0.02471614684150295</v>
       </c>
       <c r="H99">
-        <v>-0.9832492831722426</v>
+        <v>-0.9835366909549586</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -3650,13 +3650,13 @@
         </is>
       </c>
       <c r="C100">
-        <v>-1.48624814949699</v>
+        <v>-1.484325579758913</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>-0.876901832534884</v>
+        <v>-0.877088284753881</v>
       </c>
       <c r="F100">
         <v>-0.007862832019348384</v>
@@ -3665,7 +3665,7 @@
         <v>-0.01476207322228914</v>
       </c>
       <c r="H100">
-        <v>-0.8542769272932465</v>
+        <v>-0.8544633795122435</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -3683,13 +3683,13 @@
         </is>
       </c>
       <c r="C101">
-        <v>-1.024263722896351</v>
+        <v>-1.02450207265484</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>-0.4144794945294207</v>
+        <v>-0.4145675998336947</v>
       </c>
       <c r="F101">
         <v>0.004476008043089192</v>
@@ -3698,7 +3698,7 @@
         <v>-0.04530540898530526</v>
       </c>
       <c r="H101">
-        <v>-0.3736500935872046</v>
+        <v>-0.3737381988914786</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -3716,13 +3716,13 @@
         </is>
       </c>
       <c r="C102">
-        <v>-0.630944311181158</v>
+        <v>-0.6310941892449391</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>-0.2331098407576477</v>
+        <v>-0.2331473877067673</v>
       </c>
       <c r="F102">
         <v>-0.07490502075917781</v>
@@ -3731,7 +3731,7 @@
         <v>0.006200093168863941</v>
       </c>
       <c r="H102">
-        <v>-0.1644049131673339</v>
+        <v>-0.1644424601164534</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -3749,13 +3749,13 @@
         </is>
       </c>
       <c r="C103">
-        <v>-0.3891824979286767</v>
+        <v>-0.3892572826602698</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>-0.03223882389275771</v>
+        <v>-0.0322258583467222</v>
       </c>
       <c r="F103">
         <v>-0.08917485202121986</v>
@@ -3764,7 +3764,7 @@
         <v>0.0006651200793593853</v>
       </c>
       <c r="H103">
-        <v>0.05627090804910277</v>
+        <v>0.05628387359513828</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -3782,13 +3782,13 @@
         </is>
       </c>
       <c r="C104">
-        <v>-0.1381067372972398</v>
+        <v>-0.1381193953814325</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0.1274012099908635</v>
+        <v>0.1274632643614683</v>
       </c>
       <c r="F104">
         <v>-0.08560104541384203</v>
@@ -3797,7 +3797,7 @@
         <v>-0.002913865135224528</v>
       </c>
       <c r="H104">
-        <v>0.21591612053993</v>
+        <v>0.2159781749105348</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.04597161935548892</v>
+        <v>0.04600848348780871</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0.3218339320814942</v>
+        <v>0.32194391564327</v>
       </c>
       <c r="F105">
         <v>-0.08109679317658748</v>
@@ -3830,7 +3830,7 @@
         <v>-0.0107747197237428</v>
       </c>
       <c r="H105">
-        <v>0.4137054449818245</v>
+        <v>0.4138154285436003</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -3848,13 +3848,13 @@
         </is>
       </c>
       <c r="C106">
-        <v>0.1592042585532063</v>
+        <v>0.1592771208137339</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0.2198207160332217</v>
+        <v>0.2199271615969333</v>
       </c>
       <c r="F106">
         <v>-0.07760359764326087</v>
@@ -3863,7 +3863,7 @@
         <v>-0.01390851026938404</v>
       </c>
       <c r="H106">
-        <v>0.3113328239458666</v>
+        <v>0.3114392695095782</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -3881,13 +3881,13 @@
         </is>
       </c>
       <c r="C107">
-        <v>-0.0932134393642665</v>
+        <v>-0.09460638833796267</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>-1.041909615562649</v>
+        <v>-1.047759894953508</v>
       </c>
       <c r="F107">
         <v>-1.104195886066948</v>
@@ -3896,7 +3896,7 @@
         <v>0.4898425415726784</v>
       </c>
       <c r="H107">
-        <v>-0.4275562710683794</v>
+        <v>-0.4334065504592389</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -3914,13 +3914,13 @@
         </is>
       </c>
       <c r="C108">
-        <v>-0.4476477475369362</v>
+        <v>-0.4505104093227663</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>-1.290336022699815</v>
+        <v>-1.296152819577746</v>
       </c>
       <c r="F108">
         <v>-0.5911763394843805</v>
@@ -3929,7 +3929,7 @@
         <v>-0.02656073523778435</v>
       </c>
       <c r="H108">
-        <v>-0.6725989479776502</v>
+        <v>-0.6784157448555812</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -3947,13 +3947,13 @@
         </is>
       </c>
       <c r="C109">
-        <v>-0.8614181047413209</v>
+        <v>-0.8657544427805174</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>-1.333247496736045</v>
+        <v>-1.339032218187734</v>
       </c>
       <c r="F109">
         <v>-0.5186293111934863</v>
@@ -3962,7 +3962,7 @@
         <v>-0.03207675414403895</v>
       </c>
       <c r="H109">
-        <v>-0.7825414313985196</v>
+        <v>-0.788326152850209</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -3980,13 +3980,13 @@
         </is>
       </c>
       <c r="C110">
-        <v>-1.20293659227396</v>
+        <v>-1.208737788233295</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>-1.146253234097334</v>
+        <v>-1.152006220214176</v>
       </c>
       <c r="F110">
         <v>-0.3088732279341577</v>
@@ -3995,7 +3995,7 @@
         <v>-0.01880553793617674</v>
       </c>
       <c r="H110">
-        <v>-0.8185744682269998</v>
+        <v>-0.8243274543438417</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>-0.9823706391054602</v>
+        <v>-0.9867092652170805</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>-0.7040308366931063</v>
+        <v>-0.7069152635852438</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>-0.4277951843619059</v>
+        <v>-0.429233430891121</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>-0.1705990429043223</v>
+        <v>-0.170599042904327</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>-0.1056643278906788</v>
+        <v>-0.1056643278906834</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>0.001526688966102079</v>
+        <v>0.001526688966097416</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -4211,7 +4211,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>0.1490146696867938</v>
+        <v>0.1490146696867892</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="C118">
-        <v>0.1941306238901383</v>
+        <v>0.1941306238901336</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>0.08481675620029022</v>
+        <v>0.08481675620028556</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>-0.114422523186024</v>
+        <v>-0.1144225231860287</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>-0.3774401956753855</v>
+        <v>-0.3774401956753902</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>-0.4600980209512136</v>
+        <v>-0.4600980209512183</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         </is>
       </c>
       <c r="C123">
-        <v>-0.3624018725614802</v>
+        <v>-0.3624018725614848</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>-0.1521087187873681</v>
+        <v>-0.1521087187873727</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -4475,7 +4475,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>0.1365242467688539</v>
+        <v>0.1365242467688492</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         </is>
       </c>
       <c r="C126">
-        <v>0.2425209253275464</v>
+        <v>0.2425209253275417</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="C127">
-        <v>0.2049756886159534</v>
+        <v>0.2049756886159488</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>0.05338704611890975</v>
+        <v>0.05338704611890509</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>-0.1845305401314045</v>
+        <v>-0.1845305401314091</v>
       </c>
       <c r="D129">
         <v>0</v>

--- a/results/4-2021/fim-interactive-2021-04.xlsx
+++ b/results/4-2021/fim-interactive-2021-04.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.4473607181962918</v>
+        <v>-0.447620677924888</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.05543555207757867</v>
+        <v>-0.05579793214539863</v>
       </c>
       <c r="F2">
         <v>0.2333777762083635</v>
@@ -431,7 +431,7 @@
         <v>0.1404586827899792</v>
       </c>
       <c r="H2">
-        <v>-0.4292720110759213</v>
+        <v>-0.4296343911437413</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -449,13 +449,13 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0.750661216815415</v>
+        <v>-0.7504210620613415</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-1.899264906590694</v>
+        <v>-1.898052457379634</v>
       </c>
       <c r="F3">
         <v>-1.309037505585076</v>
@@ -464,7 +464,7 @@
         <v>0.04210926371058449</v>
       </c>
       <c r="H3">
-        <v>-0.6323366647162019</v>
+        <v>-0.6311242155051422</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="C4">
-        <v>-0.6202475166906858</v>
+        <v>-0.6200665570976146</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.321597518297339</v>
+        <v>-0.3217209033201817</v>
       </c>
       <c r="F4">
         <v>0.4745635077693316</v>
@@ -497,7 +497,7 @@
         <v>-0.5055742591172933</v>
       </c>
       <c r="H4">
-        <v>-0.2905867669493774</v>
+        <v>-0.2907101519722201</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="C5">
-        <v>-0.8457405798984421</v>
+        <v>-0.8455951361963427</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.106664342628155</v>
+        <v>-1.106809251940157</v>
       </c>
       <c r="F5">
         <v>-0.7492572760138498</v>
@@ -530,7 +530,7 @@
         <v>-0.2541812693871343</v>
       </c>
       <c r="H5">
-        <v>-0.1032257972271711</v>
+        <v>-0.1033707065391731</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -548,13 +548,13 @@
         </is>
       </c>
       <c r="C6">
-        <v>-0.8816084793756787</v>
+        <v>-0.8814337835428029</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-0.1989071499865248</v>
+        <v>-0.1991525215312394</v>
       </c>
       <c r="F6">
         <v>0.04483485323365277</v>
@@ -563,7 +563,7 @@
         <v>-0.269846467960747</v>
       </c>
       <c r="H6">
-        <v>0.02610446474056943</v>
+        <v>0.02585909319585488</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C7">
-        <v>-0.2216007562274616</v>
+        <v>-0.2216421801233163</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.7407659860021749</v>
+        <v>0.7411139562983127</v>
       </c>
       <c r="F7">
         <v>0.4263066381764687</v>
@@ -596,7 +596,7 @@
         <v>0.04616673541438622</v>
       </c>
       <c r="H7">
-        <v>0.2682926124113201</v>
+        <v>0.2686405827074578</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.1363038392515172</v>
+        <v>0.136200346599207</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1.110020863618576</v>
+        <v>1.109649203569912</v>
       </c>
       <c r="F8">
         <v>0.3957351835397209</v>
@@ -629,7 +629,7 @@
         <v>0.2771237505330946</v>
       </c>
       <c r="H8">
-        <v>0.4371619295457608</v>
+        <v>0.436790269497096</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.6428404611994995</v>
+        <v>0.6428020546052022</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.919482145163774</v>
+        <v>0.9195975800838241</v>
       </c>
       <c r="F9">
         <v>-0.3133908777045966</v>
@@ -662,7 +662,7 @@
         <v>-0.3299558511392216</v>
       </c>
       <c r="H9">
-        <v>1.562828874007592</v>
+        <v>1.562944308927642</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>1.215600279013287</v>
+        <v>1.215702161178917</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>2.092132121268624</v>
+        <v>2.09244790476362</v>
       </c>
       <c r="F10">
         <v>0.134639559458924</v>
@@ -695,7 +695,7 @@
         <v>0.5487860873051168</v>
       </c>
       <c r="H10">
-        <v>1.408706474504583</v>
+        <v>1.40902225799958</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="C11">
-        <v>1.642046503629114</v>
+        <v>1.641945422811209</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.446550884465484</v>
+        <v>2.446087002827482</v>
       </c>
       <c r="F11">
         <v>1.064684215917318</v>
@@ -728,7 +728,7 @@
         <v>-0.2800899846201557</v>
       </c>
       <c r="H11">
-        <v>1.661956653168322</v>
+        <v>1.661492771530319</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>1.91749723866574</v>
+        <v>1.917400840767429</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.21182380376508</v>
+        <v>2.21147087539479</v>
       </c>
       <c r="F12">
         <v>0.3314907401875122</v>
@@ -761,7 +761,7 @@
         <v>-0.2431236695676751</v>
       </c>
       <c r="H12">
-        <v>2.123456733145243</v>
+        <v>2.123103804774953</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>2.100013910376582</v>
+        <v>2.09983269300217</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.649548832007145</v>
+        <v>1.649324989022786</v>
       </c>
       <c r="F13">
         <v>-0.07187942321930438</v>
@@ -794,7 +794,7 @@
         <v>-0.006987190920237668</v>
       </c>
       <c r="H13">
-        <v>1.728415446146687</v>
+        <v>1.728191603162328</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>1.902512992358014</v>
+        <v>1.902143593979059</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.302128449194349</v>
+        <v>1.301691508671178</v>
       </c>
       <c r="F14">
         <v>0.3594928607927821</v>
@@ -827,7 +827,7 @@
         <v>-0.2401286285027327</v>
       </c>
       <c r="H14">
-        <v>1.1827642169043</v>
+        <v>1.182327276381129</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>1.488358911473995</v>
+        <v>1.488028576139398</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7899345609294117</v>
+        <v>0.789626931468838</v>
       </c>
       <c r="F15">
         <v>0.05441334298158673</v>
@@ -860,7 +860,7 @@
         <v>-0.4451002281072685</v>
       </c>
       <c r="H15">
-        <v>1.180621446055093</v>
+        <v>1.18031381659452</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="C16">
-        <v>1.272387508379531</v>
+        <v>1.272308217503971</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.347938191387222</v>
+        <v>1.348589440853081</v>
       </c>
       <c r="F16">
         <v>1.679527655482357</v>
@@ -893,7 +893,7 @@
         <v>-1.417971153529913</v>
       </c>
       <c r="H16">
-        <v>1.086381689434778</v>
+        <v>1.087032938900637</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C17">
-        <v>1.003145431945431</v>
+        <v>1.003204424020265</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5725805262707457</v>
+        <v>0.5729098150879628</v>
       </c>
       <c r="F17">
         <v>-0.7179306953627569</v>
@@ -926,7 +926,7 @@
         <v>0.4159388368257598</v>
       </c>
       <c r="H17">
-        <v>0.8745723848077429</v>
+        <v>0.8749016736249599</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.8372384597007069</v>
+        <v>0.8371982673393104</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6385005602154539</v>
+        <v>0.6376668819473601</v>
       </c>
       <c r="F18">
         <v>0.5233576369569283</v>
@@ -959,7 +959,7 @@
         <v>-0.5308237303532207</v>
       </c>
       <c r="H18">
-        <v>0.6459666536117463</v>
+        <v>0.6451329753436526</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -977,13 +977,13 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.6424426267687813</v>
+        <v>0.6425546325621634</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01075122920170907</v>
+        <v>0.01105239236025046</v>
       </c>
       <c r="F19">
         <v>-0.3898189302143668</v>
@@ -992,7 +992,7 @@
         <v>0.2495388043134472</v>
       </c>
       <c r="H19">
-        <v>0.1510313551026287</v>
+        <v>0.1513325182611701</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1010,13 +1010,13 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.2402522994060152</v>
+        <v>0.2403811125143919</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-0.2608231180638426</v>
+        <v>-0.2601046393380049</v>
       </c>
       <c r="F20">
         <v>-0.2671321184306671</v>
@@ -1025,7 +1025,7 @@
         <v>-0.01944955732500092</v>
       </c>
       <c r="H20">
-        <v>0.02575855769182542</v>
+        <v>0.02647703641766322</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1043,13 +1043,13 @@
         </is>
       </c>
       <c r="C21">
-        <v>-0.05352719659349553</v>
+        <v>-0.05348767788393211</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-0.6025374577272973</v>
+        <v>-0.6025653465053333</v>
       </c>
       <c r="F21">
         <v>0.3540577905417822</v>
@@ -1058,7 +1058,7 @@
         <v>-0.7150998054526266</v>
       </c>
       <c r="H21">
-        <v>-0.2414954428164527</v>
+        <v>-0.2415233315944889</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C22">
-        <v>-0.4116919491591884</v>
+        <v>-0.411418567008802</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-0.7941584500473177</v>
+        <v>-0.7940566745521196</v>
       </c>
       <c r="F22">
         <v>-0.3406572730422016</v>
@@ -1091,7 +1091,7 @@
         <v>-0.2145297193186204</v>
       </c>
       <c r="H22">
-        <v>-0.2389714576864956</v>
+        <v>-0.2388696821912976</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         </is>
       </c>
       <c r="C23">
-        <v>-0.5894631300344558</v>
+        <v>-0.589267061857689</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-0.7003334942993603</v>
+        <v>-0.7003415870352974</v>
       </c>
       <c r="F23">
         <v>0.03477795903244835</v>
@@ -1124,7 +1124,7 @@
         <v>-0.1432551642345525</v>
       </c>
       <c r="H23">
-        <v>-0.5918562890972562</v>
+        <v>-0.5918643818331932</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         </is>
       </c>
       <c r="C24">
-        <v>-0.7958864319955527</v>
+        <v>-0.7958245427011403</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-1.08651632590823</v>
+        <v>-1.08633456271181</v>
       </c>
       <c r="F24">
         <v>-0.2581617717552114</v>
@@ -1157,7 +1157,7 @@
         <v>-0.2629204538486371</v>
       </c>
       <c r="H24">
-        <v>-0.5654341003043815</v>
+        <v>-0.5652523371079621</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="C25">
-        <v>-0.8406774998350605</v>
+        <v>-0.8406110396165527</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-0.7817017290853285</v>
+        <v>-0.7817113341669824</v>
       </c>
       <c r="F25">
         <v>-0.09701758812802284</v>
@@ -1190,7 +1190,7 @@
         <v>-0.1133965690343628</v>
       </c>
       <c r="H25">
-        <v>-0.5712875719229429</v>
+        <v>-0.5712971770045967</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1208,13 +1208,13 @@
         </is>
       </c>
       <c r="C26">
-        <v>-0.8599521177819473</v>
+        <v>-0.8599134601557135</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>-0.8712569218348647</v>
+        <v>-0.8712663567087622</v>
       </c>
       <c r="F26">
         <v>-0.2684271949287784</v>
@@ -1223,7 +1223,7 @@
         <v>-0.1207308918515964</v>
       </c>
       <c r="H26">
-        <v>-0.4820988350544899</v>
+        <v>-0.4821082699283874</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         </is>
       </c>
       <c r="C27">
-        <v>-0.710822001298983</v>
+        <v>-0.710738546454607</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-0.103813028367503</v>
+        <v>-0.1036419322308715</v>
       </c>
       <c r="F27">
         <v>0.6948582691936486</v>
@@ -1256,7 +1256,7 @@
         <v>-0.1602128174564674</v>
       </c>
       <c r="H27">
-        <v>-0.6384584801046841</v>
+        <v>-0.6382873839680526</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         </is>
       </c>
       <c r="C28">
-        <v>-0.7232196210157864</v>
+        <v>-0.7232286845483926</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>-1.136106804775444</v>
+        <v>-1.136295115086953</v>
       </c>
       <c r="F28">
         <v>-0.484806006091638</v>
@@ -1289,7 +1289,7 @@
         <v>0.0396157539499076</v>
       </c>
       <c r="H28">
-        <v>-0.6909165526337133</v>
+        <v>-0.6911048629452226</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="C29">
-        <v>-0.7318808622891242</v>
+        <v>-0.7319772325645404</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-0.8163466941786798</v>
+        <v>-0.8167055262315732</v>
       </c>
       <c r="F29">
         <v>-0.6587817018926786</v>
@@ -1322,7 +1322,7 @@
         <v>0.1441567294988135</v>
       </c>
       <c r="H29">
-        <v>-0.3017217217848146</v>
+        <v>-0.302080553837708</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C30">
-        <v>-0.530485164015152</v>
+        <v>-0.5305803427611715</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-0.06567412873897574</v>
+        <v>-0.06567879749528663</v>
       </c>
       <c r="F30">
         <v>0.04176929100633248</v>
@@ -1355,7 +1355,7 @@
         <v>0.2041856176544432</v>
       </c>
       <c r="H30">
-        <v>-0.3116290373997515</v>
+        <v>-0.3116337061560623</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         </is>
       </c>
       <c r="C31">
-        <v>-0.6554992317934318</v>
+        <v>-0.6554911098099723</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>-0.6038692994806224</v>
+        <v>-0.6032850004260743</v>
       </c>
       <c r="F31">
         <v>-0.452177988166567</v>
@@ -1388,7 +1388,7 @@
         <v>0.1867143689001947</v>
       </c>
       <c r="H31">
-        <v>-0.3384056802142501</v>
+        <v>-0.337821381159702</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C32">
-        <v>-0.3599521808412944</v>
+        <v>-0.3599187811909794</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.04608139903310615</v>
+        <v>0.04599419938901866</v>
       </c>
       <c r="F32">
         <v>0.6822532047943331</v>
@@ -1421,7 +1421,7 @@
         <v>-0.3593837034811906</v>
       </c>
       <c r="H32">
-        <v>-0.2767881022800363</v>
+        <v>-0.2768753019241237</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C33">
-        <v>-0.173967158228623</v>
+        <v>-0.1738234124421839</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>-0.07240660372799418</v>
+        <v>-0.07232405123639121</v>
       </c>
       <c r="F33">
         <v>-0.08898283282641378</v>
@@ -1454,7 +1454,7 @@
         <v>0.06326734904571577</v>
       </c>
       <c r="H33">
-        <v>-0.04669111994729616</v>
+        <v>-0.0466085674556932</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C34">
-        <v>-0.08493330510828803</v>
+        <v>-0.08483725266168105</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0.2904612837423641</v>
+        <v>0.2902658416267249</v>
       </c>
       <c r="F34">
         <v>0.1311912137291786</v>
@@ -1487,7 +1487,7 @@
         <v>0.1044408655517766</v>
       </c>
       <c r="H34">
-        <v>0.05482920446140889</v>
+        <v>0.05463376234576964</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.05372247822976707</v>
+        <v>0.05358833020195836</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>-0.04924616612840199</v>
+        <v>-0.04958266897151667</v>
       </c>
       <c r="F35">
         <v>0.314360154882603</v>
@@ -1520,7 +1520,7 @@
         <v>-0.505007601840344</v>
       </c>
       <c r="H35">
-        <v>0.141401280829339</v>
+        <v>0.1410647779862243</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1538,13 +1538,13 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.6978714403221068</v>
+        <v>0.697862511277235</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>2.622677247402465</v>
+        <v>2.623090923690125</v>
       </c>
       <c r="F36">
         <v>0.5269285221355945</v>
@@ -1553,7 +1553,7 @@
         <v>-0.2023526466083331</v>
       </c>
       <c r="H36">
-        <v>2.298101371875204</v>
+        <v>2.298515048162863</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1571,13 +1571,13 @@
         </is>
       </c>
       <c r="C37">
-        <v>1.102225457106431</v>
+        <v>1.102296665850724</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>1.545009463409303</v>
+        <v>1.545412567057567</v>
       </c>
       <c r="F37">
         <v>-0.007582311275042275</v>
@@ -1586,7 +1586,7 @@
         <v>0.3037210870880067</v>
       </c>
       <c r="H37">
-        <v>1.248870687596339</v>
+        <v>1.249273791244602</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="C38">
-        <v>1.49102677408241</v>
+        <v>1.491104757380965</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1.845666551646281</v>
+        <v>1.845498207747686</v>
       </c>
       <c r="F38">
         <v>0.5079759695624959</v>
@@ -1619,7 +1619,7 @@
         <v>-0.3027518425874914</v>
       </c>
       <c r="H38">
-        <v>1.640442424671277</v>
+        <v>1.640274080772682</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1637,13 +1637,13 @@
         </is>
       </c>
       <c r="C39">
-        <v>2.483438986864852</v>
+        <v>2.483476395008021</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>3.920402685001367</v>
+        <v>3.919903881536706</v>
       </c>
       <c r="F39">
         <v>0.1763227827716732</v>
@@ -1652,7 +1652,7 @@
         <v>0.4260862778724393</v>
       </c>
       <c r="H39">
-        <v>3.317993624357254</v>
+        <v>3.317494820892593</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1670,13 +1670,13 @@
         </is>
       </c>
       <c r="C40">
-        <v>2.683063283821728</v>
+        <v>2.682936740258424</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>3.421174435229967</v>
+        <v>3.42093230469174</v>
       </c>
       <c r="F40">
         <v>1.636962443617589</v>
@@ -1685,7 +1685,7 @@
         <v>-0.7157767290132139</v>
       </c>
       <c r="H40">
-        <v>2.499988720625592</v>
+        <v>2.499746590087365</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="C41">
-        <v>3.110750806192812</v>
+        <v>3.110481964808553</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>3.255759552893643</v>
+        <v>3.255593465258079</v>
       </c>
       <c r="F41">
         <v>0.4137050260405467</v>
@@ -1718,7 +1718,7 @@
         <v>-0.4544765736067359</v>
       </c>
       <c r="H41">
-        <v>3.296531100459832</v>
+        <v>3.296365012824269</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         </is>
       </c>
       <c r="C42">
-        <v>3.323419288462163</v>
+        <v>3.323151814295392</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>2.696340480723685</v>
+        <v>2.696177605695045</v>
       </c>
       <c r="F42">
         <v>0.6212413784270605</v>
@@ -1751,7 +1751,7 @@
         <v>-0.7226925984331321</v>
       </c>
       <c r="H42">
-        <v>2.797791700729757</v>
+        <v>2.797628825701117</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1769,13 +1769,13 @@
         </is>
       </c>
       <c r="C43">
-        <v>2.794524824146613</v>
+        <v>2.794323798866303</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1.804824827739167</v>
+        <v>1.804591819820349</v>
       </c>
       <c r="F43">
         <v>0.482043215978</v>
@@ -1784,7 +1784,7 @@
         <v>-1.071943723712426</v>
       </c>
       <c r="H43">
-        <v>2.394725335473592</v>
+        <v>2.394492327554775</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         </is>
       </c>
       <c r="C44">
-        <v>2.24404426908031</v>
+        <v>2.243963690122869</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1.219252214964755</v>
+        <v>1.219491869718003</v>
       </c>
       <c r="F44">
         <v>0.4121565451296765</v>
@@ -1817,7 +1817,7 @@
         <v>-0.384564030742513</v>
       </c>
       <c r="H44">
-        <v>1.191659700577592</v>
+        <v>1.19189935533084</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -1835,13 +1835,13 @@
         </is>
       </c>
       <c r="C45">
-        <v>1.447539085638475</v>
+        <v>1.447581610151924</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.06973881912630464</v>
+        <v>0.0700651453742982</v>
       </c>
       <c r="F45">
         <v>0.07610774598225573</v>
@@ -1850,7 +1850,7 @@
         <v>-0.9349864041871816</v>
       </c>
       <c r="H45">
-        <v>0.9286174773312306</v>
+        <v>0.9289438035792241</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -1868,13 +1868,13 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.7838235089646943</v>
+        <v>0.7838888797529043</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.04147817402856291</v>
+        <v>0.04140668409896708</v>
       </c>
       <c r="F46">
         <v>-0.7152897442506611</v>
@@ -1883,7 +1883,7 @@
         <v>-0.09686485019733715</v>
       </c>
       <c r="H46">
-        <v>0.8536327684765611</v>
+        <v>0.8535612785469653</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="C47">
-        <v>-0.09941262511389165</v>
+        <v>-0.09932864526609658</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>-1.728119708575177</v>
+        <v>-1.728278280255654</v>
       </c>
       <c r="F47">
         <v>-0.7874200661597017</v>
@@ -1916,7 +1916,7 @@
         <v>-0.5287490716880302</v>
       </c>
       <c r="H47">
-        <v>-0.4119505707274456</v>
+        <v>-0.4121091424079226</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         </is>
       </c>
       <c r="C48">
-        <v>-0.7922700705288464</v>
+        <v>-0.7922284616965767</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>-1.552177566695064</v>
+        <v>-1.552107396003917</v>
       </c>
       <c r="F48">
         <v>-0.1878159829152811</v>
@@ -1949,7 +1949,7 @@
         <v>-0.6771354149583393</v>
       </c>
       <c r="H48">
-        <v>-0.6872261688214434</v>
+        <v>-0.687155998130297</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -1967,13 +1967,13 @@
         </is>
       </c>
       <c r="C49">
-        <v>-1.403514898247283</v>
+        <v>-1.40355497835984</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>-2.375240491747443</v>
+        <v>-2.375240921278754</v>
       </c>
       <c r="F49">
         <v>-1.418877346491199</v>
@@ -1982,7 +1982,7 @@
         <v>-0.06007377197611408</v>
       </c>
       <c r="H49">
-        <v>-0.8962893732801295</v>
+        <v>-0.8962898028114413</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2000,13 +2000,13 @@
         </is>
       </c>
       <c r="C50">
-        <v>-1.731098325127011</v>
+        <v>-1.731159513053247</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>-1.268855533490349</v>
+        <v>-1.269011454674661</v>
       </c>
       <c r="F50">
         <v>-0.2190166728346963</v>
@@ -2015,7 +2015,7 @@
         <v>-0.1489431905571671</v>
       </c>
       <c r="H50">
-        <v>-0.9008956700984859</v>
+        <v>-0.9010515912827974</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2033,13 +2033,13 @@
         </is>
       </c>
       <c r="C51">
-        <v>-1.705224055058821</v>
+        <v>-1.70522863514331</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>-1.624622628302418</v>
+        <v>-1.624554768615907</v>
       </c>
       <c r="F51">
         <v>-0.3992058136055942</v>
@@ -2048,7 +2048,7 @@
         <v>-0.2643583732837186</v>
       </c>
       <c r="H51">
-        <v>-0.9610584414131049</v>
+        <v>-0.960990581726594</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2066,13 +2066,13 @@
         </is>
       </c>
       <c r="C52">
-        <v>-1.679226198220599</v>
+        <v>-1.679194135619893</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>-1.448186139342174</v>
+        <v>-1.447969397910253</v>
       </c>
       <c r="F52">
         <v>-0.6523158177408619</v>
@@ -2081,7 +2081,7 @@
         <v>-0.07465067781977963</v>
       </c>
       <c r="H52">
-        <v>-0.721219643781533</v>
+        <v>-0.7210029023496118</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C53">
-        <v>-1.342255317234756</v>
+        <v>-1.342260736298618</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>-1.02735696780407</v>
+        <v>-1.027507323993652</v>
       </c>
       <c r="F53">
         <v>-0.07865339110683074</v>
@@ -2114,7 +2114,7 @@
         <v>-0.3638544041078548</v>
       </c>
       <c r="H53">
-        <v>-0.5848491725893841</v>
+        <v>-0.5849995287789666</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         </is>
       </c>
       <c r="C54">
-        <v>-1.458709666146793</v>
+        <v>-1.458786915671183</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>-1.7346729291385</v>
+        <v>-1.735116172164922</v>
       </c>
       <c r="F54">
         <v>-0.894415113343322</v>
@@ -2147,7 +2147,7 @@
         <v>-0.1912736891047103</v>
       </c>
       <c r="H54">
-        <v>-0.648984126690468</v>
+        <v>-0.6494273697168902</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         </is>
       </c>
       <c r="C55">
-        <v>-1.540998532076398</v>
+        <v>-1.541092006408724</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>-1.953778092020834</v>
+        <v>-1.95377513156607</v>
       </c>
       <c r="F55">
         <v>-1.055602266003916</v>
@@ -2180,7 +2180,7 @@
         <v>0.04128296913634338</v>
       </c>
       <c r="H55">
-        <v>-0.9394587951532617</v>
+        <v>-0.9394558346984981</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2198,13 +2198,13 @@
         </is>
       </c>
       <c r="C56">
-        <v>-1.538867771170682</v>
+        <v>-1.538978489266391</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>-1.439663095719312</v>
+        <v>-1.43951532934092</v>
       </c>
       <c r="F56">
         <v>-0.3544532006657043</v>
@@ -2213,7 +2213,7 @@
         <v>-0.1045910689845618</v>
       </c>
       <c r="H56">
-        <v>-0.9806188260690463</v>
+        <v>-0.9804710596906536</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="C57">
-        <v>-1.602704860878881</v>
+        <v>-1.602849668464409</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>-1.282705326636867</v>
+        <v>-1.282992040785723</v>
       </c>
       <c r="F57">
         <v>-0.6201889375747819</v>
@@ -2246,7 +2246,7 @@
         <v>-0.1105753904393213</v>
       </c>
       <c r="H57">
-        <v>-0.5519409986227638</v>
+        <v>-0.55222771277162</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         </is>
       </c>
       <c r="C58">
-        <v>-1.54508329746115</v>
+        <v>-1.545080640146644</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>-1.504186675467573</v>
+        <v>-1.504040058893865</v>
       </c>
       <c r="F58">
         <v>-0.9240355786028976</v>
@@ -2279,7 +2279,7 @@
         <v>0.007780926160631752</v>
       </c>
       <c r="H58">
-        <v>-0.5879320230253075</v>
+        <v>-0.5877854064515992</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2297,13 +2297,13 @@
         </is>
       </c>
       <c r="C59">
-        <v>-1.426155285042448</v>
+        <v>-1.426117596498889</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>-1.478066042346026</v>
+        <v>-1.477922956975048</v>
       </c>
       <c r="F59">
         <v>-0.2652873196222635</v>
@@ -2312,7 +2312,7 @@
         <v>-0.3704449063381725</v>
       </c>
       <c r="H59">
-        <v>-0.8423338163855892</v>
+        <v>-0.842190731014612</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         </is>
       </c>
       <c r="C60">
-        <v>-1.297660422506551</v>
+        <v>-1.297674914659456</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>-0.9256836455757278</v>
+        <v>-0.9257446019831899</v>
       </c>
       <c r="F60">
         <v>-0.09967762169687738</v>
@@ -2345,7 +2345,7 @@
         <v>-0.1376065166558411</v>
       </c>
       <c r="H60">
-        <v>-0.6883995072230094</v>
+        <v>-0.6884604636304714</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         </is>
       </c>
       <c r="C61">
-        <v>-1.057535417828103</v>
+        <v>-1.057428096360962</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>-0.322205307923076</v>
+        <v>-0.3220047675917451</v>
       </c>
       <c r="F61">
         <v>0.02857513780354837</v>
@@ -2378,7 +2378,7 @@
         <v>0.1310277504586127</v>
       </c>
       <c r="H61">
-        <v>-0.4818081961852371</v>
+        <v>-0.4816076558539062</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="C62">
-        <v>-0.8520499369820236</v>
+        <v>-0.8519450829199616</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>-0.682244752083254</v>
+        <v>-0.6821080051298647</v>
       </c>
       <c r="F62">
         <v>-0.8518869838397389</v>
@@ -2411,7 +2411,7 @@
         <v>0.490525022202552</v>
       </c>
       <c r="H62">
-        <v>-0.3208827904460671</v>
+        <v>-0.3207460434926778</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2429,13 +2429,13 @@
         </is>
       </c>
       <c r="C63">
-        <v>-0.4756103406126506</v>
+        <v>-0.4755075793102147</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.02769234313146655</v>
+        <v>0.02782705746393969</v>
       </c>
       <c r="F63">
         <v>0.04226929196402519</v>
@@ -2444,7 +2444,7 @@
         <v>3.780774064390813e-005</v>
       </c>
       <c r="H63">
-        <v>-0.01461475657320255</v>
+        <v>-0.01448004224072941</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="C64">
-        <v>-0.1804785173695849</v>
+        <v>-0.1803609727039637</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.254843647396535</v>
+        <v>0.254841824441814</v>
       </c>
       <c r="F64">
         <v>-0.07727373923917674</v>
@@ -2477,7 +2477,7 @@
         <v>0.3625525961816568</v>
       </c>
       <c r="H64">
-        <v>-0.03043520954594503</v>
+        <v>-0.0304370325006661</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2495,13 +2495,13 @@
         </is>
       </c>
       <c r="C65">
-        <v>-0.09663630935559375</v>
+        <v>-0.09663519868442341</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.01316352413288865</v>
+        <v>0.01289832848641612</v>
       </c>
       <c r="F65">
         <v>-0.04686896735870279</v>
@@ -2510,7 +2510,7 @@
         <v>0.04988250846335739</v>
       </c>
       <c r="H65">
-        <v>0.01014998302823406</v>
+        <v>0.009884787381761517</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2528,13 +2528,13 @@
         </is>
       </c>
       <c r="C66">
-        <v>0.04475222562640352</v>
+        <v>0.04471896962869046</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>-0.1166906121552649</v>
+        <v>-0.1166913318774092</v>
       </c>
       <c r="F66">
         <v>0.1257181331200811</v>
@@ -2543,7 +2543,7 @@
         <v>-0.1799061624043731</v>
       </c>
       <c r="H66">
-        <v>-0.06250258287097288</v>
+        <v>-0.06250330259311721</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2561,13 +2561,13 @@
         </is>
       </c>
       <c r="C67">
-        <v>0.1144159337551519</v>
+        <v>0.1144467584808295</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.3063471756464601</v>
+        <v>0.3067382128724958</v>
       </c>
       <c r="F67">
         <v>-0.01291307198970298</v>
@@ -2576,7 +2576,7 @@
         <v>0.3577793423292743</v>
       </c>
       <c r="H67">
-        <v>-0.03851909469311117</v>
+        <v>-0.0381280574670755</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2594,13 +2594,13 @@
         </is>
       </c>
       <c r="C68">
-        <v>-0.07062475272005822</v>
+        <v>-0.0705294607068488</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>-0.4853190985043055</v>
+        <v>-0.4850630523088992</v>
       </c>
       <c r="F68">
         <v>-0.2071193824640229</v>
@@ -2609,7 +2609,7 @@
         <v>-0.2031659546402318</v>
       </c>
       <c r="H68">
-        <v>-0.07503376140005087</v>
+        <v>-0.07477771520464456</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2627,13 +2627,13 @@
         </is>
       </c>
       <c r="C69">
-        <v>-0.09920883405185757</v>
+        <v>-0.09909517222683925</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>-0.1011728011943087</v>
+        <v>-0.1013645175935457</v>
       </c>
       <c r="F69">
         <v>-0.0623775759304781</v>
@@ -2642,7 +2642,7 @@
         <v>0.1018272731845379</v>
       </c>
       <c r="H69">
-        <v>-0.1406224984483685</v>
+        <v>-0.1408142148476055</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -2660,13 +2660,13 @@
         </is>
       </c>
       <c r="C70">
-        <v>-0.1228574354265295</v>
+        <v>-0.1227943686702858</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>-0.2112850176539526</v>
+        <v>-0.2114881176511954</v>
       </c>
       <c r="F70">
         <v>-0.1492939280028913</v>
@@ -2675,7 +2675,7 @@
         <v>0.04948709127352192</v>
       </c>
       <c r="H70">
-        <v>-0.1114781809245832</v>
+        <v>-0.1116812809218261</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2693,13 +2693,13 @@
         </is>
       </c>
       <c r="C71">
-        <v>-0.2559640401798267</v>
+        <v>-0.2560310063868909</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>-0.2260792433667286</v>
+        <v>-0.2262083379939245</v>
       </c>
       <c r="F71">
         <v>-0.2861096170247435</v>
@@ -2708,7 +2708,7 @@
         <v>0.008779072988351469</v>
       </c>
       <c r="H71">
-        <v>0.05125130066966337</v>
+        <v>0.0511222060424675</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         </is>
       </c>
       <c r="C72">
-        <v>-0.1195735114443301</v>
+        <v>-0.1197049357245795</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.06024301643768103</v>
+        <v>0.06024123034034655</v>
       </c>
       <c r="F72">
         <v>0.1095599962451903</v>
@@ -2741,7 +2741,7 @@
         <v>-0.1236493124600871</v>
       </c>
       <c r="H72">
-        <v>0.0743323326525779</v>
+        <v>0.07433054655524342</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2759,13 +2759,13 @@
         </is>
       </c>
       <c r="C73">
-        <v>-0.1548208593280465</v>
+        <v>-0.1549357587959293</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>-0.2421621927291743</v>
+        <v>-0.2422878098789448</v>
       </c>
       <c r="F73">
         <v>-0.3646648012306533</v>
@@ -2774,7 +2774,7 @@
         <v>0.1081090495870412</v>
       </c>
       <c r="H73">
-        <v>0.01439355891443772</v>
+        <v>0.01426794176466725</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -2792,13 +2792,13 @@
         </is>
       </c>
       <c r="C74">
-        <v>-0.09513512024536777</v>
+        <v>-0.09512097035549665</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0.02745793867676233</v>
+        <v>0.02777103611053497</v>
       </c>
       <c r="F74">
         <v>0.2233552207519753</v>
@@ -2807,7 +2807,7 @@
         <v>-0.0276286458410436</v>
       </c>
       <c r="H74">
-        <v>-0.1682686362341693</v>
+        <v>-0.1679555388003967</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -2825,13 +2825,13 @@
         </is>
       </c>
       <c r="C75">
-        <v>-0.03755321023887166</v>
+        <v>-0.03744734084803397</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0.004248396659255804</v>
+        <v>0.004486180035926185</v>
       </c>
       <c r="F75">
         <v>-0.01452217189572375</v>
@@ -2840,7 +2840,7 @@
         <v>-0.0401270963778007</v>
       </c>
       <c r="H75">
-        <v>0.05889766493278026</v>
+        <v>0.05913544830945064</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2858,13 +2858,13 @@
         </is>
       </c>
       <c r="C76">
-        <v>0.04936728450947732</v>
+        <v>0.04947225416727183</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.407924995431077</v>
+        <v>0.4079196104015698</v>
       </c>
       <c r="F76">
         <v>0.005511485073067285</v>
@@ -2873,7 +2873,7 @@
         <v>0.1792447287919484</v>
       </c>
       <c r="H76">
-        <v>0.2231687815660613</v>
+        <v>0.2231633965365541</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="C77">
-        <v>0.145134873941772</v>
+        <v>0.1451824033341243</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.1409081650000043</v>
+        <v>0.140552786788465</v>
       </c>
       <c r="F77">
         <v>0.1800168196309454</v>
@@ -2906,7 +2906,7 @@
         <v>-0.06955336766768555</v>
       </c>
       <c r="H77">
-        <v>0.03044471303674441</v>
+        <v>0.03008933482520516</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         </is>
       </c>
       <c r="C78">
-        <v>0.02477646970569854</v>
+        <v>0.02471631857697462</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>-0.4539756782675314</v>
+        <v>-0.4540933029180637</v>
       </c>
       <c r="F78">
         <v>-0.03582412491537686</v>
@@ -2939,7 +2939,7 @@
         <v>-0.4521314103221555</v>
       </c>
       <c r="H78">
-        <v>0.033979856970001</v>
+        <v>0.03386223231946874</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -2957,13 +2957,13 @@
         </is>
       </c>
       <c r="C79">
-        <v>0.07114922658372051</v>
+        <v>0.07111548282459365</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.1897394241713437</v>
+        <v>0.1900828370264023</v>
       </c>
       <c r="F79">
         <v>-0.1311434562319765</v>
@@ -2972,7 +2972,7 @@
         <v>0.2287385320819317</v>
       </c>
       <c r="H79">
-        <v>0.0921443483213885</v>
+        <v>0.09248776117644707</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -2990,13 +2990,13 @@
         </is>
       </c>
       <c r="C80">
-        <v>0.1171415577955961</v>
+        <v>0.1171080653008572</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.5918943202785794</v>
+        <v>0.5918899403066238</v>
       </c>
       <c r="F80">
         <v>0.4294982885455169</v>
@@ -3005,7 +3005,7 @@
         <v>0.09400963955481735</v>
       </c>
       <c r="H80">
-        <v>0.06838639217824505</v>
+        <v>0.06838201220628942</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3023,13 +3023,13 @@
         </is>
       </c>
       <c r="C81">
-        <v>0.1767472212666528</v>
+        <v>0.1767858618334738</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.3793308188842309</v>
+        <v>0.3792639729189316</v>
       </c>
       <c r="F81">
         <v>0.1624414325396765</v>
@@ -3038,7 +3038,7 @@
         <v>-0.126471261572372</v>
       </c>
       <c r="H81">
-        <v>0.3433606479169264</v>
+        <v>0.3432938019516271</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3056,13 +3056,13 @@
         </is>
       </c>
       <c r="C82">
-        <v>0.4079504437244641</v>
+        <v>0.408132073891911</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0.4708372115637137</v>
+        <v>0.4712915453156855</v>
       </c>
       <c r="F82">
         <v>0.3396640673993164</v>
@@ -3071,7 +3071,7 @@
         <v>-0.2516717453731058</v>
       </c>
       <c r="H82">
-        <v>0.3828448895375031</v>
+        <v>0.3832992232894748</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         </is>
       </c>
       <c r="C83">
-        <v>0.394723067811189</v>
+        <v>0.3947895091418289</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0.1368299205182434</v>
+        <v>0.1367125780260735</v>
       </c>
       <c r="F83">
         <v>-0.02673495978021815</v>
@@ -3104,7 +3104,7 @@
         <v>-0.07638969974248538</v>
       </c>
       <c r="H83">
-        <v>0.2399545800409469</v>
+        <v>0.2398372375487771</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         </is>
       </c>
       <c r="C84">
-        <v>4.099548580781831</v>
+        <v>4.099602269123389</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>15.41119637216115</v>
+        <v>15.41114098023286</v>
       </c>
       <c r="F84">
         <v>2.406389796745175</v>
@@ -3137,7 +3137,7 @@
         <v>-2.292664345522254</v>
       </c>
       <c r="H84">
-        <v>15.29747092093823</v>
+        <v>15.29741552900994</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="C85">
-        <v>5.054042672122884</v>
+        <v>5.054203338115146</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>4.197307184248439</v>
+        <v>4.197668248885957</v>
       </c>
       <c r="F85">
         <v>-0.5435376162898203</v>
@@ -3170,7 +3170,7 @@
         <v>-0.7811299870025823</v>
       </c>
       <c r="H85">
-        <v>5.521974787540842</v>
+        <v>5.522335852178359</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -3188,13 +3188,13 @@
         </is>
       </c>
       <c r="C86">
-        <v>4.169127500479288</v>
+        <v>4.169225626559536</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>-3.068823475010667</v>
+        <v>-3.068619300906755</v>
       </c>
       <c r="F86">
         <v>-0.2229197769496115</v>
@@ -3203,7 +3203,7 @@
         <v>-0.2512338410354649</v>
       </c>
       <c r="H86">
-        <v>-2.594669857025591</v>
+        <v>-2.594465682921678</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3221,13 +3221,13 @@
         </is>
       </c>
       <c r="C87">
-        <v>6.486543940454175</v>
+        <v>6.479235897835051</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>9.406495680417793</v>
+        <v>9.376753663128133</v>
       </c>
       <c r="F87">
         <v>1.148456641551472</v>
@@ -3236,7 +3236,7 @@
         <v>-0.3600782684252779</v>
       </c>
       <c r="H87">
-        <v>8.618117307291598</v>
+        <v>8.588375290001938</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="C88">
-        <v>2.325910788419514</v>
+        <v>2.3021421078895</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>-1.231336235977494</v>
+        <v>-1.297234179549339</v>
       </c>
       <c r="F88">
         <v>0.5496957104695311</v>
@@ -3269,7 +3269,7 @@
         <v>0.5989643103647085</v>
       </c>
       <c r="H88">
-        <v>-2.379996256811734</v>
+        <v>-2.445894200383579</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -3287,13 +3287,13 @@
         </is>
       </c>
       <c r="C89">
-        <v>0.659438448333153</v>
+        <v>0.6082119212150803</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>-2.468582176097005</v>
+        <v>-2.578052497811724</v>
       </c>
       <c r="F89">
         <v>0.3441625582805103</v>
@@ -3302,7 +3302,7 @@
         <v>0.5385127706527834</v>
       </c>
       <c r="H89">
-        <v>-3.351257505030299</v>
+        <v>-3.460727826745018</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -3320,13 +3320,13 @@
         </is>
       </c>
       <c r="C90">
-        <v>0.9328536097200301</v>
+        <v>0.8455755316151472</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>-1.975162829463159</v>
+        <v>-2.119164859306487</v>
       </c>
       <c r="F90">
         <v>0.07707146022304415</v>
@@ -3335,7 +3335,7 @@
         <v>0.2713079767385702</v>
       </c>
       <c r="H90">
-        <v>-2.323542266424774</v>
+        <v>-2.467544296268101</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -3353,13 +3353,13 @@
         </is>
       </c>
       <c r="C91">
-        <v>-1.627990519146268</v>
+        <v>-1.752244435832709</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>-0.8368808350473982</v>
+        <v>-1.014526206663293</v>
       </c>
       <c r="F91">
         <v>-0.2507940361522072</v>
@@ -3368,7 +3368,7 @@
         <v>0.3877611295958299</v>
       </c>
       <c r="H91">
-        <v>-0.9738479284910208</v>
+        <v>-1.151493300106915</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -3386,13 +3386,13 @@
         </is>
       </c>
       <c r="C92">
-        <v>-2.250316444707575</v>
+        <v>-2.388526718194495</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>-3.720639938222724</v>
+        <v>-3.84236330899648</v>
       </c>
       <c r="F92">
         <v>0.03073638495717679</v>
@@ -3401,7 +3401,7 @@
         <v>0.205856231790346</v>
       </c>
       <c r="H92">
-        <v>-3.957232554970247</v>
+        <v>-4.078955925744003</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -3419,13 +3419,13 @@
         </is>
       </c>
       <c r="C93">
-        <v>-2.20203246423136</v>
+        <v>-2.334487056689899</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>-2.275446254192144</v>
+        <v>-2.361893851793342</v>
       </c>
       <c r="F93">
         <v>0.09665293453422291</v>
@@ -3434,7 +3434,7 @@
         <v>0.1512351555391492</v>
       </c>
       <c r="H93">
-        <v>-2.523334344265516</v>
+        <v>-2.609781941866714</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -3452,13 +3452,13 @@
         </is>
       </c>
       <c r="C94">
-        <v>-1.849611051814618</v>
+        <v>-1.962530468253839</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>-0.5654771797961911</v>
+        <v>-0.6313385055622431</v>
       </c>
       <c r="F94">
         <v>0.09312370768446371</v>
@@ -3467,7 +3467,7 @@
         <v>0.09266818344615287</v>
       </c>
       <c r="H94">
-        <v>-0.7512690709268076</v>
+        <v>-0.8171303966928597</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -3485,13 +3485,13 @@
         </is>
       </c>
       <c r="C95">
-        <v>-2.08192351726479</v>
+        <v>-2.161429416460134</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>-1.766130696848085</v>
+        <v>-1.810121999488477</v>
       </c>
       <c r="F95">
         <v>-0.07809244489832719</v>
@@ -3500,7 +3500,7 @@
         <v>0.04164877327441237</v>
       </c>
       <c r="H95">
-        <v>-1.72968702522417</v>
+        <v>-1.773678327864562</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -3518,13 +3518,13 @@
         </is>
       </c>
       <c r="C96">
-        <v>-1.700909138054503</v>
+        <v>-1.762050456181865</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>-2.196582421381579</v>
+        <v>-2.244847467883403</v>
       </c>
       <c r="F96">
         <v>0.1671864564110747</v>
@@ -3533,7 +3533,7 @@
         <v>-0.2359414643208324</v>
       </c>
       <c r="H96">
-        <v>-2.127827413471821</v>
+        <v>-2.176092459973645</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -3551,13 +3551,13 @@
         </is>
       </c>
       <c r="C97">
-        <v>-1.695512981568965</v>
+        <v>-1.74786606095328</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>-2.253861628249988</v>
+        <v>-2.305156270879003</v>
       </c>
       <c r="F97">
         <v>-0.04454262810795627</v>
@@ -3566,7 +3566,7 @@
         <v>0.0458561061685083</v>
       </c>
       <c r="H97">
-        <v>-2.25517510631054</v>
+        <v>-2.306469748939555</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -3584,13 +3584,13 @@
         </is>
       </c>
       <c r="C98">
-        <v>-2.005838416956509</v>
+        <v>-2.051849087439666</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>-1.80677892134637</v>
+        <v>-1.847270611507786</v>
       </c>
       <c r="F98">
         <v>-0.04465233912845792</v>
@@ -3599,7 +3599,7 @@
         <v>0.05496150094622421</v>
       </c>
       <c r="H98">
-        <v>-1.817088083164137</v>
+        <v>-1.857579773325552</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="C99">
-        <v>-1.814199113915838</v>
+        <v>-1.850648435686969</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>-0.9995734846853991</v>
+        <v>-1.005319392477688</v>
       </c>
       <c r="F99">
         <v>0.008679353111062443</v>
@@ -3632,7 +3632,7 @@
         <v>-0.02471614684150295</v>
       </c>
       <c r="H99">
-        <v>-0.9835366909549586</v>
+        <v>-0.9892825987472476</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -3650,13 +3650,13 @@
         </is>
       </c>
       <c r="C100">
-        <v>-1.484325579758913</v>
+        <v>-1.514324000140142</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>-0.877088284753881</v>
+        <v>-0.8995497256960948</v>
       </c>
       <c r="F100">
         <v>-0.007862832019348384</v>
@@ -3665,7 +3665,7 @@
         <v>-0.01476207322228914</v>
       </c>
       <c r="H100">
-        <v>-0.8544633795122435</v>
+        <v>-0.8769248204544573</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -3683,13 +3683,13 @@
         </is>
       </c>
       <c r="C101">
-        <v>-1.02450207265484</v>
+        <v>-1.045354070792009</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>-0.4145675998336947</v>
+        <v>-0.4292765534864729</v>
       </c>
       <c r="F101">
         <v>0.004476008043089192</v>
@@ -3698,7 +3698,7 @@
         <v>-0.04530540898530526</v>
       </c>
       <c r="H101">
-        <v>-0.3737381988914786</v>
+        <v>-0.3884471525442568</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -3716,13 +3716,13 @@
         </is>
       </c>
       <c r="C102">
-        <v>-0.6310941892449391</v>
+        <v>-0.6443177157666233</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>-0.2331473877067673</v>
+        <v>-0.2431251914062424</v>
       </c>
       <c r="F102">
         <v>-0.07490502075917781</v>
@@ -3731,7 +3731,7 @@
         <v>0.006200093168863941</v>
       </c>
       <c r="H102">
-        <v>-0.1644424601164534</v>
+        <v>-0.1744202638159285</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -3749,13 +3749,13 @@
         </is>
       </c>
       <c r="C103">
-        <v>-0.3892572826602698</v>
+        <v>-0.4023302254805223</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>-0.0322258583467222</v>
+        <v>-0.03736943133328352</v>
       </c>
       <c r="F103">
         <v>-0.08917485202121986</v>
@@ -3764,7 +3764,7 @@
         <v>0.0006651200793593853</v>
       </c>
       <c r="H103">
-        <v>0.05628387359513828</v>
+        <v>0.05114030060857695</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -3782,13 +3782,13 @@
         </is>
       </c>
       <c r="C104">
-        <v>-0.1381193953814325</v>
+        <v>-0.1456235696715219</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0.1274632643614683</v>
+        <v>0.1272768975399068</v>
       </c>
       <c r="F104">
         <v>-0.08560104541384203</v>
@@ -3797,7 +3797,7 @@
         <v>-0.002913865135224528</v>
       </c>
       <c r="H104">
-        <v>0.2159781749105348</v>
+        <v>0.2157918080889733</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.04600848348780871</v>
+        <v>0.04324339362508288</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0.32194391564327</v>
+        <v>0.3261912996999462</v>
       </c>
       <c r="F105">
         <v>-0.08109679317658748</v>
@@ -3830,7 +3830,7 @@
         <v>-0.0107747197237428</v>
       </c>
       <c r="H105">
-        <v>0.4138154285436003</v>
+        <v>0.4180628126002765</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -3848,13 +3848,13 @@
         </is>
       </c>
       <c r="C106">
-        <v>0.1592771208137339</v>
+        <v>0.1600641042087006</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0.2199271615969333</v>
+        <v>0.2241576509282285</v>
       </c>
       <c r="F106">
         <v>-0.07760359764326087</v>
@@ -3863,7 +3863,7 @@
         <v>-0.01390851026938404</v>
       </c>
       <c r="H106">
-        <v>0.3114392695095782</v>
+        <v>0.3156697588408734</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -3881,13 +3881,13 @@
         </is>
       </c>
       <c r="C107">
-        <v>-0.09460638833796267</v>
+        <v>-0.02789900326514688</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>-1.047759894953508</v>
+        <v>-0.7892218612286734</v>
       </c>
       <c r="F107">
         <v>-1.104195886066948</v>
@@ -3896,7 +3896,7 @@
         <v>0.4898425415726784</v>
       </c>
       <c r="H107">
-        <v>-0.4334065504592389</v>
+        <v>-0.174868516734404</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -3914,13 +3914,13 @@
         </is>
       </c>
       <c r="C108">
-        <v>-0.4505104093227663</v>
+        <v>-0.3200456116470271</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>-1.296152819577746</v>
+        <v>-1.041309535987614</v>
       </c>
       <c r="F108">
         <v>-0.5911763394843805</v>
@@ -3929,7 +3929,7 @@
         <v>-0.02656073523778435</v>
       </c>
       <c r="H108">
-        <v>-0.6784157448555812</v>
+        <v>-0.423572461265449</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -3947,13 +3947,13 @@
         </is>
       </c>
       <c r="C109">
-        <v>-0.8657544427805174</v>
+        <v>-0.6735325391625955</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>-1.339032218187734</v>
+        <v>-1.087756410362328</v>
       </c>
       <c r="F109">
         <v>-0.5186293111934863</v>
@@ -3962,7 +3962,7 @@
         <v>-0.03207675414403895</v>
       </c>
       <c r="H109">
-        <v>-0.788326152850209</v>
+        <v>-0.5370503450248023</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -3980,13 +3980,13 @@
         </is>
       </c>
       <c r="C110">
-        <v>-1.208737788233295</v>
+        <v>-0.9556171372436231</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>-1.152006220214176</v>
+        <v>-0.9041807413958816</v>
       </c>
       <c r="F110">
         <v>-0.3088732279341577</v>
@@ -3995,7 +3995,7 @@
         <v>-0.01880553793617674</v>
       </c>
       <c r="H110">
-        <v>-0.8243274543438417</v>
+        <v>-0.5765019755255472</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -4013,13 +4013,13 @@
         </is>
       </c>
       <c r="C111">
-        <v>-0.9867092652170805</v>
+        <v>-0.7982231226586183</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>-0.1596458028886507</v>
+        <v>-0.1596458028886542</v>
       </c>
       <c r="F111">
         <v>-0.2285927347169659</v>
@@ -4028,7 +4028,7 @@
         <v>-0.02495787247087041</v>
       </c>
       <c r="H111">
-        <v>0.09390480429918563</v>
+        <v>0.09390480429918205</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -4046,13 +4046,13 @@
         </is>
       </c>
       <c r="C112">
-        <v>-0.7069152635852438</v>
+        <v>-0.5821399419243154</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>-0.1769768130503995</v>
+        <v>-0.1769768130504022</v>
       </c>
       <c r="F112">
         <v>-0.2249372474335473</v>
@@ -4061,7 +4061,7 @@
         <v>-0.03062209358665697</v>
       </c>
       <c r="H112">
-        <v>0.07858252796980472</v>
+        <v>0.07858252796980203</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -4079,13 +4079,13 @@
         </is>
       </c>
       <c r="C113">
-        <v>-0.429233430891121</v>
+        <v>-0.367277061186545</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>-0.2283048874112433</v>
+        <v>-0.2283048874112459</v>
       </c>
       <c r="F113">
         <v>-0.2182056268008309</v>
@@ -4094,7 +4094,7 @@
         <v>-0.03567618663302673</v>
       </c>
       <c r="H113">
-        <v>0.02557692602261436</v>
+        <v>0.02557692602261175</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -4112,13 +4112,13 @@
         </is>
       </c>
       <c r="C114">
-        <v>-0.170599042904327</v>
+        <v>-0.170599042904325</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>-0.1174686682669998</v>
+        <v>-0.1174686682670018</v>
       </c>
       <c r="F114">
         <v>-0.1983445860786198</v>
@@ -4127,7 +4127,7 @@
         <v>-0.03881285485310208</v>
       </c>
       <c r="H114">
-        <v>0.1196887726647221</v>
+        <v>0.1196887726647201</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -4145,13 +4145,13 @@
         </is>
       </c>
       <c r="C115">
-        <v>-0.1056643278906834</v>
+        <v>-0.1056643278906807</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0.1000930571659235</v>
+        <v>0.1000930571659228</v>
       </c>
       <c r="F115">
         <v>-0.1166266791775149</v>
@@ -4160,7 +4160,7 @@
         <v>-0.04457441746726536</v>
       </c>
       <c r="H115">
-        <v>0.2612941538107038</v>
+        <v>0.261294153810703</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -4178,13 +4178,13 @@
         </is>
       </c>
       <c r="C116">
-        <v>0.001526688966097416</v>
+        <v>0.001526688966100226</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0.2517872543767239</v>
+        <v>0.2517872543767216</v>
       </c>
       <c r="F116">
         <v>-0.1158462352664058</v>
@@ -4193,7 +4193,7 @@
         <v>-0.04857251464534843</v>
       </c>
       <c r="H116">
-        <v>0.4162060042884782</v>
+        <v>0.4162060042884759</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -4211,13 +4211,13 @@
         </is>
       </c>
       <c r="C117">
-        <v>0.1490146696867892</v>
+        <v>0.1490146696867922</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0.3616470354715237</v>
+        <v>0.3616470354715222</v>
       </c>
       <c r="F117">
         <v>-0.1110352567967979</v>
@@ -4226,7 +4226,7 @@
         <v>-0.05600868650164431</v>
       </c>
       <c r="H117">
-        <v>0.528690978769966</v>
+        <v>0.5286909787699644</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -4244,13 +4244,13 @@
         </is>
       </c>
       <c r="C118">
-        <v>0.1941306238901336</v>
+        <v>0.1941306238901373</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0.06299514854637808</v>
+        <v>0.06299514854637872</v>
       </c>
       <c r="F118">
         <v>-0.1072636150853989</v>
@@ -4259,7 +4259,7 @@
         <v>-0.05549180773889883</v>
       </c>
       <c r="H118">
-        <v>0.2257505713706758</v>
+        <v>0.2257505713706765</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -4277,13 +4277,13 @@
         </is>
       </c>
       <c r="C119">
-        <v>0.08481675620028556</v>
+        <v>0.08481675620028958</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>-0.3371624135934688</v>
+        <v>-0.3371624135934682</v>
       </c>
       <c r="F119">
         <v>-0.08568743174625301</v>
@@ -4292,7 +4292,7 @@
         <v>-0.06038149329570093</v>
       </c>
       <c r="H119">
-        <v>-0.1910934885515148</v>
+        <v>-0.1910934885515143</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -4310,13 +4310,13 @@
         </is>
       </c>
       <c r="C120">
-        <v>-0.1144225231860287</v>
+        <v>-0.114422523186024</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>-0.545169863168533</v>
+        <v>-0.5451698631685328</v>
       </c>
       <c r="F120">
         <v>-0.08529001528437953</v>
@@ -4325,7 +4325,7 @@
         <v>-0.06503336014937107</v>
       </c>
       <c r="H120">
-        <v>-0.3948464877347824</v>
+        <v>-0.3948464877347822</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -4343,13 +4343,13 @@
         </is>
       </c>
       <c r="C121">
-        <v>-0.3774401956753902</v>
+        <v>-0.3774401956753848</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>-0.6904236544859222</v>
+        <v>-0.6904236544859209</v>
       </c>
       <c r="F121">
         <v>-0.08274470280441298</v>
@@ -4358,7 +4358,7 @@
         <v>-0.06558694399952578</v>
       </c>
       <c r="H121">
-        <v>-0.5420920076819835</v>
+        <v>-0.5420920076819822</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -4376,13 +4376,13 @@
         </is>
       </c>
       <c r="C122">
-        <v>-0.4600980209512183</v>
+        <v>-0.4600980209512129</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>-0.2676361525569344</v>
+        <v>-0.2676361525569339</v>
       </c>
       <c r="F122">
         <v>-0.08578441787397714</v>
@@ -4391,7 +4391,7 @@
         <v>-0.06094578308271625</v>
       </c>
       <c r="H122">
-        <v>-0.120905951600241</v>
+        <v>-0.1209059516002404</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -4409,13 +4409,13 @@
         </is>
       </c>
       <c r="C123">
-        <v>-0.3624018725614848</v>
+        <v>-0.3624018725614805</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>0.05362217996546506</v>
+        <v>0.05362217996546118</v>
       </c>
       <c r="F123">
         <v>-0.07439735684460999</v>
@@ -4424,7 +4424,7 @@
         <v>-0.06398714761530897</v>
       </c>
       <c r="H123">
-        <v>0.192006684425384</v>
+        <v>0.1920066844253801</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -4442,13 +4442,13 @@
         </is>
       </c>
       <c r="C124">
-        <v>-0.1521087187873727</v>
+        <v>-0.1521087187873685</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>0.2960027519279154</v>
+        <v>0.2960027519279153</v>
       </c>
       <c r="F124">
         <v>-0.07344784309998544</v>
@@ -4457,7 +4457,7 @@
         <v>-0.06277096237687457</v>
       </c>
       <c r="H124">
-        <v>0.4322215574047754</v>
+        <v>0.4322215574047753</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -4475,13 +4475,13 @@
         </is>
       </c>
       <c r="C125">
-        <v>0.1365242467688492</v>
+        <v>0.1365242467688535</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0.4641082077389656</v>
+        <v>0.4641082077389669</v>
       </c>
       <c r="F125">
         <v>-0.06961914664000717</v>
@@ -4490,7 +4490,7 @@
         <v>-0.06535105927137325</v>
       </c>
       <c r="H125">
-        <v>0.599078413650346</v>
+        <v>0.5990784136503473</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -4508,13 +4508,13 @@
         </is>
       </c>
       <c r="C126">
-        <v>0.2425209253275417</v>
+        <v>0.2425209253275449</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>0.1563505616778355</v>
+        <v>0.1563505616778317</v>
       </c>
       <c r="F126">
         <v>-0.07399735139521226</v>
@@ -4523,7 +4523,7 @@
         <v>-0.06191717530202648</v>
       </c>
       <c r="H126">
-        <v>0.2922650883750742</v>
+        <v>0.2922650883750704</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="C127">
-        <v>0.2049756886159488</v>
+        <v>0.2049756886159523</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>-0.09655876688090659</v>
+        <v>-0.09655876688090909</v>
       </c>
       <c r="F127">
         <v>-0.06103019738071975</v>
@@ -4556,7 +4556,7 @@
         <v>-0.06476699022452889</v>
       </c>
       <c r="H127">
-        <v>0.02923842072434205</v>
+        <v>0.02923842072433954</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -4574,13 +4574,13 @@
         </is>
       </c>
       <c r="C128">
-        <v>0.05338704611890509</v>
+        <v>0.05338704611890861</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>-0.3103518180602593</v>
+        <v>-0.3103518180602594</v>
       </c>
       <c r="F128">
         <v>-0.05845613110354226</v>
@@ -4589,7 +4589,7 @@
         <v>-0.06406575085549028</v>
       </c>
       <c r="H128">
-        <v>-0.1878299361012268</v>
+        <v>-0.1878299361012269</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="C129">
-        <v>-0.1845305401314091</v>
+        <v>-0.1845305401314064</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>-0.4875621372622913</v>
+        <v>-0.487562137262293</v>
       </c>
       <c r="F129">
         <v>-0.059599211089205</v>
@@ -4622,7 +4622,7 @@
         <v>-0.06652406421155707</v>
       </c>
       <c r="H129">
-        <v>-0.3614388619615293</v>
+        <v>-0.361438861961531</v>
       </c>
       <c r="I129">
         <v>1</v>
